--- a/doc/hotel_api.xlsx
+++ b/doc/hotel_api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14720" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="871" activeTab="3"/>
+    <workbookView xWindow="10560" yWindow="560" windowWidth="27820" windowHeight="15140" tabRatio="871" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="用户注册" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="237">
   <si>
     <t>API名称</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>性别</t>
-  </si>
-  <si>
-    <t>0：女性/1：男性</t>
   </si>
   <si>
     <t>user_years</t>
@@ -272,9 +269,6 @@
     <t>用户类型</t>
   </si>
   <si>
-    <t>0：管理员，1：普通用户</t>
-  </si>
-  <si>
     <t>user_time</t>
   </si>
   <si>
@@ -549,9 +543,6 @@
     <t>/indent/alter</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>支付状态</t>
   </si>
   <si>
@@ -561,9 +552,6 @@
     <t>订单id</t>
   </si>
   <si>
-    <t>indent_time</t>
-  </si>
-  <si>
     <t>订房时间</t>
   </si>
   <si>
@@ -571,9 +559,6 @@
   </si>
   <si>
     <t>订单状态</t>
-  </si>
-  <si>
-    <t>pay error</t>
   </si>
   <si>
     <t>indent_status error</t>
@@ -768,6 +753,96 @@
   </si>
   <si>
     <t>|-indent_type</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：管理员，1：普通用户</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：女性/1：男性</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：女性/1：男性</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：管理员，1：普通用户</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_img</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_point</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id_num</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>1订房2早餐3按摩</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_min</t>
+  </si>
+  <si>
+    <t>最小价格</t>
+  </si>
+  <si>
+    <t>最大价格</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_max</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent_time_end</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>最晚订房时间</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>最早订房时间</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent_time_begin</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对路径</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +850,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -940,6 +1015,12 @@
       <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1474,7 +1555,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1503,8 +1584,59 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1717,45 +1849,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1780,6 +1918,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1801,21 +1954,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1846,8 +1984,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="27">
     <cellStyle name="Excel Built-in Accent1" xfId="4"/>
     <cellStyle name="Excel Built-in Heading 2" xfId="6"/>
     <cellStyle name="Excel Built-in Heading 3" xfId="1"/>
@@ -1856,6 +2010,23 @@
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="3"/>
   </cellStyles>
@@ -2188,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2204,10 +2375,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="79"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -2219,10 +2390,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -2245,13 +2416,13 @@
       <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -2302,7 +2473,7 @@
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="42" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -2310,10 +2481,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
       </c>
       <c r="E11" s="41"/>
     </row>
@@ -2322,10 +2493,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
       </c>
       <c r="E12" s="50"/>
     </row>
@@ -2334,10 +2505,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13" s="55"/>
       <c r="F13" s="42"/>
@@ -2347,10 +2518,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
       <c r="E14" s="54"/>
       <c r="F14" s="42"/>
@@ -2360,10 +2531,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="42"/>
@@ -2373,10 +2544,10 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
         <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="42"/>
@@ -2386,10 +2557,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
         <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="43"/>
@@ -2399,10 +2570,10 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
         <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="43"/>
@@ -2416,7 +2587,7 @@
     </row>
     <row r="20" spans="2:6" ht="16">
       <c r="B20" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -2432,7 +2603,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>9</v>
@@ -2449,13 +2620,13 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="D23" s="45" t="s">
         <v>38</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>39</v>
       </c>
       <c r="E23" s="41">
         <v>200</v>
@@ -2464,16 +2635,16 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="E24" s="41" t="s">
         <v>41</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>42</v>
       </c>
       <c r="F24" s="42"/>
     </row>
@@ -2486,7 +2657,7 @@
     </row>
     <row r="26" spans="2:6" ht="16">
       <c r="B26" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -2502,12 +2673,12 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="84"/>
+        <v>37</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="81"/>
       <c r="E28" s="46" t="s">
         <v>10</v>
       </c>
@@ -2517,10 +2688,10 @@
       <c r="B29" s="52">
         <v>411</v>
       </c>
-      <c r="C29" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="86"/>
+      <c r="C29" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="83"/>
       <c r="E29" s="53"/>
       <c r="F29" s="51"/>
     </row>
@@ -2528,10 +2699,10 @@
       <c r="B30" s="52">
         <v>412</v>
       </c>
-      <c r="C30" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="77"/>
+      <c r="C30" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="85"/>
       <c r="E30" s="53"/>
       <c r="F30" s="51"/>
     </row>
@@ -2539,10 +2710,10 @@
       <c r="B31" s="66">
         <v>413</v>
       </c>
-      <c r="C31" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="77"/>
+      <c r="C31" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="85"/>
       <c r="E31" s="53"/>
       <c r="F31" s="51"/>
     </row>
@@ -2550,93 +2721,93 @@
       <c r="B32" s="67">
         <v>414</v>
       </c>
-      <c r="C32" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="74"/>
+      <c r="C32" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="87"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="67">
         <v>415</v>
       </c>
-      <c r="C33" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="74"/>
+      <c r="C33" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="87"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="67">
         <v>416</v>
       </c>
-      <c r="C34" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="74"/>
+      <c r="C34" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="87"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="67">
         <v>417</v>
       </c>
-      <c r="C35" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="74"/>
+      <c r="C35" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="87"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="67">
         <v>418</v>
       </c>
-      <c r="C36" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="74"/>
+      <c r="C36" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="87"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="67">
         <v>419</v>
       </c>
-      <c r="C37" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="74"/>
+      <c r="C37" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="87"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="67">
         <v>420</v>
       </c>
-      <c r="C38" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="74"/>
+      <c r="C38" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="87"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="67">
         <v>421</v>
       </c>
-      <c r="C39" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="75"/>
+      <c r="C39" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="88"/>
       <c r="E39" s="72"/>
       <c r="F39" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -2659,7 +2830,7 @@
   <dimension ref="B2:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2675,10 +2846,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="79"/>
+      <c r="C2" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="76"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -2690,10 +2861,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="81"/>
+      <c r="C3" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="78"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -2713,18 +2884,18 @@
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -2752,78 +2923,78 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="42"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="42"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
         <v>124</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" t="s">
-        <v>126</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="42"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="42"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="42"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="47"/>
@@ -2856,27 +3027,25 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="2:6" ht="16">
+    <row r="19" spans="2:6" ht="18" thickTop="1" thickBot="1">
       <c r="B19" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
       <c r="F19" s="39"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" ht="18" thickTop="1" thickBot="1">
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="F20" s="74"/>
+    </row>
+    <row r="21" spans="2:6" ht="16" thickTop="1">
       <c r="B21" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="40" t="s">
         <v>9</v>
@@ -2887,32 +3056,34 @@
       <c r="E21" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="42"/>
+      <c r="F21" s="40" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="E22" s="41" t="s">
         <v>41</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>42</v>
       </c>
       <c r="F22" s="42"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="D23" s="45" t="s">
         <v>38</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>39</v>
       </c>
       <c r="E23" s="41">
         <v>200</v>
@@ -2921,91 +3092,91 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>83</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>85</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="42"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="42"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="42"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="42"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="42"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E30" s="41"/>
       <c r="F30" s="48"/>
@@ -3027,91 +3198,91 @@
       <c r="E33" s="39"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="2:6" ht="16">
+    <row r="34" spans="2:6" ht="18" thickTop="1" thickBot="1">
       <c r="B34" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
       <c r="F34" s="39"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" ht="18" thickTop="1" thickBot="1">
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
-      <c r="F35" s="46"/>
-    </row>
-    <row r="36" spans="2:6">
+      <c r="F35" s="74"/>
+    </row>
+    <row r="36" spans="2:6" ht="16" thickTop="1">
       <c r="B36" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="84"/>
+        <v>37</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="81"/>
       <c r="E36" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="51"/>
+      <c r="F36" s="75"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="52">
         <v>431</v>
       </c>
-      <c r="C37" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="110"/>
+      <c r="C37" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="112"/>
       <c r="E37" s="53"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38">
         <v>432</v>
       </c>
-      <c r="C38" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="74"/>
+      <c r="C38" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="87"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39">
         <v>433</v>
       </c>
-      <c r="C39" s="108" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="74"/>
+      <c r="C39" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="87"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B9 B10 B11 B12 B13 B14 C17:E17 F17 B4:B5 B15:B16 B17:B18 B26:B30">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C17:F17 B4:B5 B9:B18 B26:B30">
       <formula1>"required,optional"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3130,22 +3301,23 @@
   <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="79"/>
+      <c r="C2" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="76"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -3157,10 +3329,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="81"/>
+      <c r="C3" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="78"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -3183,13 +3355,13 @@
       <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -3220,10 +3392,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="42"/>
@@ -3233,10 +3405,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="42"/>
@@ -3246,10 +3418,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="42"/>
@@ -3259,10 +3431,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
         <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="42"/>
@@ -3272,10 +3444,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="42"/>
@@ -3285,13 +3457,15 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="43"/>
+        <v>142</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="37"/>
@@ -3302,7 +3476,7 @@
     </row>
     <row r="16" spans="2:6" ht="16">
       <c r="B16" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
@@ -3318,7 +3492,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>9</v>
@@ -3335,13 +3509,13 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="D19" s="45" t="s">
         <v>38</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>39</v>
       </c>
       <c r="E19" s="41">
         <v>200</v>
@@ -3350,16 +3524,16 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="E20" s="41" t="s">
         <v>41</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>42</v>
       </c>
       <c r="F20" s="42"/>
     </row>
@@ -3372,7 +3546,7 @@
     </row>
     <row r="22" spans="2:6" ht="16">
       <c r="B22" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -3388,12 +3562,12 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="84"/>
+        <v>37</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="81"/>
       <c r="E24" s="46" t="s">
         <v>10</v>
       </c>
@@ -3403,10 +3577,10 @@
       <c r="B25" s="26">
         <v>411</v>
       </c>
-      <c r="C25" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="112"/>
+      <c r="C25" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="114"/>
       <c r="E25" s="27"/>
       <c r="F25" s="28"/>
     </row>
@@ -3414,10 +3588,10 @@
       <c r="B26" s="26">
         <v>412</v>
       </c>
-      <c r="C26" s="111" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="112"/>
+      <c r="C26" s="113" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="114"/>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
     </row>
@@ -3425,10 +3599,10 @@
       <c r="B27" s="26">
         <v>413</v>
       </c>
-      <c r="C27" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="112"/>
+      <c r="C27" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="114"/>
       <c r="E27" s="27"/>
       <c r="F27" s="28"/>
     </row>
@@ -3436,10 +3610,10 @@
       <c r="B28" s="26">
         <v>414</v>
       </c>
-      <c r="C28" s="111" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="112"/>
+      <c r="C28" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="114"/>
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
     </row>
@@ -3447,10 +3621,10 @@
       <c r="B29" s="26">
         <v>415</v>
       </c>
-      <c r="C29" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="112"/>
+      <c r="C29" s="113" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="114"/>
       <c r="E29" s="27"/>
       <c r="F29" s="28"/>
     </row>
@@ -3458,29 +3632,29 @@
       <c r="B30" s="26">
         <v>416</v>
       </c>
-      <c r="C30" s="111" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="112"/>
+      <c r="C30" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="114"/>
       <c r="E30" s="27"/>
       <c r="F30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B11 C14:E14 F15 B4:B5 B9:B10 B12:B15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F15 B4:B5 B9:B15 C14:D14">
       <formula1>"required,optional"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3496,10 +3670,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F38"/>
+  <dimension ref="B2:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3512,10 +3686,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="79"/>
+      <c r="C2" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="76"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -3527,10 +3701,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="81"/>
+      <c r="C3" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="78"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -3553,13 +3727,13 @@
       <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -3590,10 +3764,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="42"/>
@@ -3603,10 +3777,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="42"/>
@@ -3616,10 +3790,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="42"/>
@@ -3629,10 +3803,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="42"/>
@@ -3655,10 +3829,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="42"/>
@@ -3668,10 +3842,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="42"/>
@@ -3681,109 +3855,99 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
+        <v>142</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="43"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+    </row>
+    <row r="18" spans="2:6" ht="16">
+      <c r="B18" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-    </row>
-    <row r="20" spans="2:6" ht="16">
-      <c r="B20" s="38" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="C20" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
+      <c r="B21" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="41">
+        <v>200</v>
+      </c>
+      <c r="F21" s="42"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="C22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="42"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="41">
-        <v>200</v>
-      </c>
-      <c r="F23" s="42"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="41" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="2:6" ht="16">
+      <c r="B24" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="42"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="39"/>
@@ -3792,165 +3956,137 @@
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
     </row>
-    <row r="26" spans="2:6" ht="16">
-      <c r="B26" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
+    <row r="26" spans="2:6">
+      <c r="B26" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="81"/>
+      <c r="E26" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
+      <c r="B27" s="26">
+        <v>411</v>
+      </c>
+      <c r="C27" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="114"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="84"/>
-      <c r="E28" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="46"/>
+      <c r="B28" s="26">
+        <v>412</v>
+      </c>
+      <c r="C28" s="113" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="114"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="26">
-        <v>411</v>
-      </c>
-      <c r="C29" s="111" t="s">
+        <v>414</v>
+      </c>
+      <c r="C29" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="112"/>
+      <c r="D29" s="114"/>
       <c r="E29" s="27"/>
       <c r="F29" s="28"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="26">
-        <v>412</v>
-      </c>
-      <c r="C30" s="111" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="112"/>
+        <v>415</v>
+      </c>
+      <c r="C30" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="114"/>
       <c r="E30" s="27"/>
       <c r="F30" s="28"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="26">
-        <v>413</v>
-      </c>
-      <c r="C31" s="111" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="112"/>
+        <v>416</v>
+      </c>
+      <c r="C31" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="114"/>
       <c r="E31" s="27"/>
       <c r="F31" s="28"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="26">
-        <v>414</v>
-      </c>
-      <c r="C32" s="111" t="s">
+        <v>417</v>
+      </c>
+      <c r="C32" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="112"/>
+      <c r="D32" s="114"/>
       <c r="E32" s="27"/>
       <c r="F32" s="28"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="26">
-        <v>415</v>
-      </c>
-      <c r="C33" s="111" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="112"/>
+        <v>418</v>
+      </c>
+      <c r="C33" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="114"/>
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="26">
-        <v>416</v>
-      </c>
-      <c r="C34" s="111" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="112"/>
+        <v>419</v>
+      </c>
+      <c r="C34" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="114"/>
       <c r="E34" s="27"/>
       <c r="F34" s="28"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="26">
-        <v>417</v>
-      </c>
-      <c r="C35" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="112"/>
+        <v>420</v>
+      </c>
+      <c r="C35" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="114"/>
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
     </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="26">
-        <v>418</v>
-      </c>
-      <c r="C36" s="111" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="112"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="26">
-        <v>419</v>
-      </c>
-      <c r="C37" s="111" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="112"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="26">
-        <v>420</v>
-      </c>
-      <c r="C38" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18:E18 F19 B4:B5 B9:B19">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C16:E16 F17 B4:B5 B9:B17">
       <formula1>"required,optional"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3966,10 +4102,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F42"/>
+  <dimension ref="B2:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B19" sqref="B19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3982,10 +4118,10 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="103"/>
+      <c r="C2" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="98"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3997,10 +4133,10 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="105"/>
+      <c r="C3" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="100"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -4023,13 +4159,13 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
+      <c r="B6" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9"/>
@@ -4057,429 +4193,442 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="B11" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="121" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="121" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="122"/>
+      <c r="F11" s="123"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="30"/>
+        <v>62</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" ht="16">
-      <c r="B20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="2:6" ht="16">
+      <c r="B21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="19" t="s">
+      <c r="C24" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="D24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="21">
+      <c r="E24" s="21">
         <v>200</v>
       </c>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="73" t="s">
-        <v>208</v>
-      </c>
-      <c r="D25" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="E25" s="24"/>
+        <v>36</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
+      <c r="B26" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
+        <v>136</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="17"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="30"/>
+        <v>140</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="2:6" ht="16">
-      <c r="B37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="B36" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="30"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="2:6" ht="16">
+      <c r="B38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="116"/>
-      <c r="E39" s="25" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="117" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="118"/>
+      <c r="E40" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="25"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="26">
-        <v>431</v>
-      </c>
-      <c r="C40" s="111" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="112"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="26">
-        <v>432</v>
-      </c>
-      <c r="C41" s="111" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="112"/>
+        <v>431</v>
+      </c>
+      <c r="C41" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="114"/>
       <c r="E41" s="27"/>
       <c r="F41" s="28"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="26">
-        <v>433</v>
-      </c>
-      <c r="C42" s="111" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="112"/>
+        <v>432</v>
+      </c>
+      <c r="C42" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="114"/>
       <c r="E42" s="27"/>
       <c r="F42" s="28"/>
     </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="26">
+        <v>433</v>
+      </c>
+      <c r="C43" s="113" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="114"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B9:B18 B26:B35">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B27:B36 B9:B10 B12:B19">
       <formula1>"required,optional"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4498,7 +4647,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4510,10 +4659,10 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="102" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="103"/>
+      <c r="C2" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="98"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4525,10 +4674,10 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="105"/>
+      <c r="C3" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="100"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -4551,13 +4700,13 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="114" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
+      <c r="B6" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9"/>
@@ -4588,10 +4737,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
         <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
@@ -4601,10 +4750,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
@@ -4614,10 +4763,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
@@ -4627,13 +4776,15 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
+      <c r="F12" s="124" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="7"/>
@@ -4644,7 +4795,7 @@
     </row>
     <row r="14" spans="2:6" ht="16">
       <c r="B14" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -4660,7 +4811,7 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>9</v>
@@ -4677,13 +4828,13 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="D17" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="E17" s="21">
         <v>200</v>
@@ -4692,16 +4843,16 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="E18" s="24" t="s">
         <v>41</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>42</v>
       </c>
       <c r="F18" s="17"/>
     </row>
@@ -4714,7 +4865,7 @@
     </row>
     <row r="20" spans="2:6" ht="16">
       <c r="B20" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="18"/>
@@ -4730,12 +4881,12 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="116"/>
+        <v>37</v>
+      </c>
+      <c r="C22" s="117" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="118"/>
       <c r="E22" s="25" t="s">
         <v>10</v>
       </c>
@@ -4745,10 +4896,10 @@
       <c r="B23" s="26">
         <v>411</v>
       </c>
-      <c r="C23" s="111" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="112"/>
+      <c r="C23" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="114"/>
       <c r="E23" s="27"/>
       <c r="F23" s="28"/>
     </row>
@@ -4756,10 +4907,10 @@
       <c r="B24" s="26">
         <v>412</v>
       </c>
-      <c r="C24" s="111" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="112"/>
+      <c r="C24" s="113" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="114"/>
       <c r="E24" s="27"/>
       <c r="F24" s="28"/>
     </row>
@@ -4767,10 +4918,10 @@
       <c r="B25" s="26">
         <v>413</v>
       </c>
-      <c r="C25" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="112"/>
+      <c r="C25" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="114"/>
       <c r="E25" s="27"/>
       <c r="F25" s="28"/>
     </row>
@@ -4778,10 +4929,10 @@
       <c r="B26" s="26">
         <v>414</v>
       </c>
-      <c r="C26" s="111" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="112"/>
+      <c r="C26" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="114"/>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
     </row>
@@ -4789,10 +4940,10 @@
       <c r="B27" s="26">
         <v>417</v>
       </c>
-      <c r="C27" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="112"/>
+      <c r="C27" s="113" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="114"/>
       <c r="E27" s="27"/>
       <c r="F27" s="28"/>
     </row>
@@ -4810,7 +4961,7 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B9 B10 B11:B12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B9:B12">
       <formula1>"required,optional"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4826,10 +4977,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F32"/>
+  <dimension ref="B2:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:F31"/>
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4841,10 +4992,10 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="102" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="103"/>
+      <c r="C2" s="97" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="98"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4856,10 +5007,10 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="105"/>
+      <c r="C3" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="100"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -4882,13 +5033,13 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="114" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
+      <c r="B6" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9"/>
@@ -4916,91 +5067,500 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
         <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" ht="16">
+      <c r="B18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="21">
+        <v>200</v>
+      </c>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="2:6" ht="16">
+      <c r="B24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="117" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="118"/>
+      <c r="E26" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="26">
+        <v>411</v>
+      </c>
+      <c r="C27" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="114"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="26">
+        <v>412</v>
+      </c>
+      <c r="C28" s="113" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="114"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="26">
+        <v>413</v>
+      </c>
+      <c r="C29" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="114"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="26">
+        <v>414</v>
+      </c>
+      <c r="C30" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="114"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="26">
+        <v>415</v>
+      </c>
+      <c r="C31" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="114"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="26">
+        <v>416</v>
+      </c>
+      <c r="C32" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" s="114"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="26">
+        <v>417</v>
+      </c>
+      <c r="C33" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="114"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+  </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B9:B16">
+      <formula1>"required,optional"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="98"/>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="99" t="s">
         <v>182</v>
       </c>
+      <c r="D3" s="100"/>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6">
+        <v>20160210</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
@@ -5014,7 +5574,7 @@
     </row>
     <row r="17" spans="2:6" ht="16">
       <c r="B17" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -5030,7 +5590,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>9</v>
@@ -5046,161 +5606,322 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="19" t="s">
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="2:6" ht="16">
+      <c r="B32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="20" t="s">
+      <c r="C34" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="21">
-        <v>200</v>
-      </c>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="2:6" ht="16">
-      <c r="B23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="25" t="s">
+      <c r="D34" s="118"/>
+      <c r="E34" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="26">
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="26">
         <v>411</v>
       </c>
-      <c r="C26" s="111" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="26">
+      <c r="C35" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="114"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="26">
         <v>412</v>
       </c>
-      <c r="C27" s="111" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="26">
+      <c r="C36" s="113" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="114"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="26">
         <v>413</v>
       </c>
-      <c r="C28" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="112"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="26">
+      <c r="C37" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="114"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="26">
         <v>414</v>
       </c>
-      <c r="C29" s="111" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="26">
+      <c r="C38" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="114"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="26">
         <v>415</v>
       </c>
-      <c r="C30" s="111" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="112"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="26">
+      <c r="C39" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="114"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="26">
         <v>416</v>
       </c>
-      <c r="C31" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="26">
+      <c r="C40" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="114"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="26">
         <v>417</v>
       </c>
-      <c r="C32" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="112"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
+      <c r="C41" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="114"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="26">
+        <v>418</v>
+      </c>
+      <c r="C42" s="113" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="114"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="26">
+        <v>419</v>
+      </c>
+      <c r="C43" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="114"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="26">
+        <v>420</v>
+      </c>
+      <c r="C44" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="114"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="26">
+        <v>415</v>
+      </c>
+      <c r="C45" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="114"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="28"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="26">
+        <v>416</v>
+      </c>
+      <c r="C46" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="114"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="16">
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -5218,556 +5939,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:F45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="102" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="104" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6">
-        <v>20160210</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="114" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:6" ht="16">
-      <c r="B16" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" t="s">
-        <v>180</v>
-      </c>
-      <c r="D24" t="s">
-        <v>181</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" t="s">
-        <v>197</v>
-      </c>
-      <c r="C26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="2:6" ht="16">
-      <c r="B31" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="116"/>
-      <c r="E33" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="25"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="26">
-        <v>411</v>
-      </c>
-      <c r="C34" s="111" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" s="112"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="26">
-        <v>412</v>
-      </c>
-      <c r="C35" s="111" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" s="112"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="26">
-        <v>413</v>
-      </c>
-      <c r="C36" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="112"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="26">
-        <v>414</v>
-      </c>
-      <c r="C37" s="111" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" s="112"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="26">
-        <v>415</v>
-      </c>
-      <c r="C38" s="111" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="26">
-        <v>416</v>
-      </c>
-      <c r="C39" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="D39" s="112"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="26">
-        <v>417</v>
-      </c>
-      <c r="C40" s="111" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40" s="112"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="26">
-        <v>418</v>
-      </c>
-      <c r="C41" s="111" t="s">
-        <v>173</v>
-      </c>
-      <c r="D41" s="112"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="28"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="26">
-        <v>419</v>
-      </c>
-      <c r="C42" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="112"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="26">
-        <v>420</v>
-      </c>
-      <c r="C43" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="112"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="28"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="26">
-        <v>415</v>
-      </c>
-      <c r="C44" s="111" t="s">
-        <v>162</v>
-      </c>
-      <c r="D44" s="112"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="28"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="26">
-        <v>416</v>
-      </c>
-      <c r="C45" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="D45" s="112"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-  </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B9 B10 B11 B12:B14">
-      <formula1>"required,optional"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5780,10 +5957,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="79"/>
+      <c r="C2" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="76"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -5795,10 +5972,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="81"/>
+      <c r="C3" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="78"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -5821,13 +5998,13 @@
       <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:6" ht="17" thickBot="1">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="2:6" ht="16" thickTop="1">
       <c r="B7" s="39"/>
@@ -5858,18 +6035,26 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="42" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" t="s">
+        <v>236</v>
+      </c>
       <c r="E10" s="41"/>
       <c r="F10" s="42"/>
     </row>
@@ -5904,7 +6089,7 @@
     </row>
     <row r="16" spans="2:6" ht="17" thickBot="1">
       <c r="B16" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
@@ -5920,7 +6105,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>9</v>
@@ -5937,13 +6122,13 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="D19" s="45" t="s">
         <v>38</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>39</v>
       </c>
       <c r="E19" s="41">
         <v>200</v>
@@ -5952,16 +6137,16 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="E20" s="41" t="s">
         <v>41</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>42</v>
       </c>
       <c r="F20" s="42"/>
     </row>
@@ -5974,7 +6159,7 @@
     </row>
     <row r="22" spans="2:6" ht="17" thickBot="1">
       <c r="B22" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -5990,12 +6175,12 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="84"/>
+        <v>37</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="81"/>
       <c r="E24" s="46" t="s">
         <v>10</v>
       </c>
@@ -6005,10 +6190,10 @@
       <c r="B25" s="52">
         <v>401</v>
       </c>
-      <c r="C25" s="109" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="110"/>
+      <c r="C25" s="111" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="112"/>
       <c r="E25" s="53"/>
       <c r="F25" s="51"/>
     </row>
@@ -6016,19 +6201,19 @@
       <c r="B26">
         <v>403</v>
       </c>
-      <c r="C26" s="108" t="s">
-        <v>204</v>
-      </c>
-      <c r="D26" s="74"/>
+      <c r="C26" s="110" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="87"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27">
         <v>404</v>
       </c>
-      <c r="C27" s="108" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27" s="74"/>
+      <c r="C27" s="110" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6061,7 +6246,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="B28" sqref="B28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6086,10 +6271,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="79"/>
+      <c r="C2" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="76"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -6102,10 +6287,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="81"/>
+      <c r="C3" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="78"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -6131,13 +6316,13 @@
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" s="64"/>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="1:6" ht="17">
       <c r="A7" s="64"/>
@@ -6171,10 +6356,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="41">
         <v>13438432345</v>
@@ -6187,10 +6372,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="E10" s="41">
         <v>123456</v>
@@ -6223,13 +6408,13 @@
     </row>
     <row r="14" spans="1:6" ht="17">
       <c r="A14" s="64"/>
-      <c r="B14" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
+      <c r="B14" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
     </row>
     <row r="15" spans="1:6" ht="17">
       <c r="A15" s="64"/>
@@ -6242,7 +6427,7 @@
     <row r="16" spans="1:6" ht="17">
       <c r="A16" s="64"/>
       <c r="B16" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>9</v>
@@ -6260,13 +6445,13 @@
     <row r="17" spans="1:6">
       <c r="A17" s="65"/>
       <c r="B17" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="D17" s="45" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>39</v>
       </c>
       <c r="E17" s="41">
         <v>200</v>
@@ -6276,29 +6461,29 @@
     <row r="18" spans="1:6">
       <c r="A18" s="65"/>
       <c r="B18" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="E18" s="41" t="s">
         <v>41</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>42</v>
       </c>
       <c r="F18" s="42"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="65"/>
       <c r="B19" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="D19" s="45" t="s">
         <v>59</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>60</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -6306,13 +6491,13 @@
     <row r="20" spans="1:6">
       <c r="A20" s="65"/>
       <c r="B20" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>62</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="42"/>
@@ -6320,7 +6505,7 @@
     <row r="21" spans="1:6">
       <c r="A21" s="65"/>
       <c r="B21" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -6334,23 +6519,23 @@
     <row r="22" spans="1:6">
       <c r="A22" s="65"/>
       <c r="B22" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
         <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="42" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="65"/>
       <c r="B23" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -6360,19 +6545,19 @@
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="42" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="65"/>
       <c r="B24" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
         <v>19</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="42"/>
@@ -6380,13 +6565,13 @@
     <row r="25" spans="1:6">
       <c r="A25" s="65"/>
       <c r="B25" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
         <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
       </c>
       <c r="E25" s="50"/>
       <c r="F25" s="42"/>
@@ -6394,13 +6579,13 @@
     <row r="26" spans="1:6">
       <c r="A26" s="65"/>
       <c r="B26" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="42"/>
@@ -6408,13 +6593,13 @@
     <row r="27" spans="1:6">
       <c r="A27" s="65"/>
       <c r="B27" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
         <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
       </c>
       <c r="E27" s="68"/>
       <c r="F27" s="42"/>
@@ -6422,13 +6607,13 @@
     <row r="28" spans="1:6">
       <c r="A28" s="65"/>
       <c r="B28" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="42"/>
@@ -6436,13 +6621,13 @@
     <row r="29" spans="1:6">
       <c r="A29" s="65"/>
       <c r="B29" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
-      </c>
-      <c r="D29" t="s">
-        <v>24</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="42"/>
@@ -6450,13 +6635,13 @@
     <row r="30" spans="1:6">
       <c r="A30" s="65"/>
       <c r="B30" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
         <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
       </c>
       <c r="E30" s="54"/>
       <c r="F30" s="42"/>
@@ -6464,13 +6649,13 @@
     <row r="31" spans="1:6">
       <c r="A31" s="65"/>
       <c r="B31" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>28</v>
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="42"/>
@@ -6478,13 +6663,13 @@
     <row r="32" spans="1:6">
       <c r="A32" s="65"/>
       <c r="B32" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
         <v>71</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" t="s">
-        <v>73</v>
       </c>
       <c r="E32" s="55"/>
       <c r="F32" s="42"/>
@@ -6515,13 +6700,13 @@
     </row>
     <row r="36" spans="1:6" ht="17">
       <c r="A36" s="64"/>
-      <c r="B36" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
+      <c r="B36" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
     </row>
     <row r="37" spans="1:6" ht="17">
       <c r="A37" s="64"/>
@@ -6534,26 +6719,26 @@
     <row r="38" spans="1:6">
       <c r="A38" s="65"/>
       <c r="B38" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="90"/>
+      <c r="F38" s="92"/>
     </row>
     <row r="39" spans="1:6" ht="17">
       <c r="A39" s="64"/>
       <c r="B39" s="52">
         <v>401</v>
       </c>
-      <c r="C39" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="92"/>
+      <c r="C39" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="94"/>
       <c r="E39" s="70"/>
       <c r="F39" s="70"/>
     </row>
@@ -6562,24 +6747,24 @@
       <c r="B40" s="66">
         <v>402</v>
       </c>
-      <c r="C40" s="93" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="88"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
+      <c r="C40" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="90"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
     </row>
     <row r="41" spans="1:6" ht="17">
       <c r="A41" s="64"/>
       <c r="B41" s="66">
         <v>403</v>
       </c>
-      <c r="C41" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="88"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
+      <c r="C41" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="90"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
     </row>
     <row r="42" spans="1:6" ht="17">
       <c r="A42" s="64"/>
@@ -6638,11 +6823,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B36:F36"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="C38:D38"/>
@@ -6650,6 +6830,11 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B36:F36"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -6671,8 +6856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6696,10 +6881,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="79"/>
+      <c r="C2" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="76"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -6712,10 +6897,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="81"/>
+      <c r="C3" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="78"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -6741,13 +6926,13 @@
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" s="64"/>
-      <c r="B6" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="B6" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="1:6" ht="17">
       <c r="A7" s="64"/>
@@ -6802,7 +6987,7 @@
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="42" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6811,10 +6996,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
       </c>
       <c r="E11" s="41"/>
     </row>
@@ -6824,10 +7009,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
       </c>
       <c r="E12" s="50"/>
     </row>
@@ -6837,10 +7022,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13" s="55"/>
       <c r="F13" s="42"/>
@@ -6851,10 +7036,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
       <c r="E14" s="54"/>
       <c r="F14" s="42"/>
@@ -6865,31 +7050,43 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="42"/>
     </row>
-    <row r="16" spans="1:6" ht="16" customHeight="1">
+    <row r="16" spans="1:6" ht="16" customHeight="1" thickBot="1">
       <c r="A16" s="64"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="119" t="s">
+        <v>220</v>
+      </c>
       <c r="E16" s="37"/>
       <c r="F16" s="42"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" spans="1:6" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="65"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="119" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="119" t="s">
+        <v>221</v>
+      </c>
       <c r="E17" s="37"/>
       <c r="F17" s="43"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="16" thickTop="1">
       <c r="A18" s="65"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -6900,7 +7097,7 @@
     <row r="19" spans="1:6" ht="16">
       <c r="A19" s="65"/>
       <c r="B19" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -6918,7 +7115,7 @@
     <row r="21" spans="1:6">
       <c r="A21" s="65"/>
       <c r="B21" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="40" t="s">
         <v>9</v>
@@ -6936,13 +7133,13 @@
     <row r="22" spans="1:6">
       <c r="A22" s="65"/>
       <c r="B22" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="D22" s="45" t="s">
         <v>38</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>39</v>
       </c>
       <c r="E22" s="41">
         <v>200</v>
@@ -6952,16 +7149,16 @@
     <row r="23" spans="1:6">
       <c r="A23" s="65"/>
       <c r="B23" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="E23" s="41" t="s">
         <v>41</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>42</v>
       </c>
       <c r="F23" s="42"/>
     </row>
@@ -6976,7 +7173,7 @@
     <row r="25" spans="1:6" ht="16">
       <c r="A25" s="65"/>
       <c r="B25" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -6994,12 +7191,12 @@
     <row r="27" spans="1:6">
       <c r="A27" s="65"/>
       <c r="B27" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="84"/>
+        <v>37</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="81"/>
       <c r="E27" s="46" t="s">
         <v>10</v>
       </c>
@@ -7010,10 +7207,10 @@
       <c r="B28" s="52">
         <v>411</v>
       </c>
-      <c r="C28" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="86"/>
+      <c r="C28" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="83"/>
       <c r="E28" s="53"/>
       <c r="F28" s="51"/>
     </row>
@@ -7022,10 +7219,10 @@
       <c r="B29" s="52">
         <v>412</v>
       </c>
-      <c r="C29" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="77"/>
+      <c r="C29" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="85"/>
       <c r="E29" s="53"/>
       <c r="F29" s="51"/>
     </row>
@@ -7034,10 +7231,10 @@
       <c r="B30" s="66">
         <v>413</v>
       </c>
-      <c r="C30" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="77"/>
+      <c r="C30" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="85"/>
       <c r="E30" s="53"/>
       <c r="F30" s="51"/>
     </row>
@@ -7046,51 +7243,51 @@
       <c r="B31" s="67">
         <v>414</v>
       </c>
-      <c r="C31" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="74"/>
+      <c r="C31" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="87"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="65"/>
       <c r="B32" s="67">
         <v>415</v>
       </c>
-      <c r="C32" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="74"/>
+      <c r="C32" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="87"/>
     </row>
     <row r="33" spans="1:4" ht="17">
       <c r="A33" s="64"/>
       <c r="B33" s="67">
         <v>416</v>
       </c>
-      <c r="C33" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="74"/>
+      <c r="C33" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="87"/>
     </row>
     <row r="34" spans="1:4" ht="17">
       <c r="A34" s="64"/>
       <c r="B34" s="67">
         <v>417</v>
       </c>
-      <c r="C34" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="74"/>
+      <c r="C34" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="87"/>
     </row>
     <row r="35" spans="1:4" ht="17">
       <c r="A35" s="64"/>
       <c r="B35" s="67"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
     </row>
     <row r="36" spans="1:4" ht="17">
       <c r="A36" s="64"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
     </row>
     <row r="37" spans="1:4" ht="17">
       <c r="A37" s="64"/>
@@ -7105,11 +7302,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
@@ -7118,10 +7310,15 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F18 B4:B5 B9:B18 C16:E17">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F18 B4:B5 B9:B18 E16:E17">
       <formula1>"required,optional"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7139,8 +7336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7156,10 +7353,10 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="103"/>
+      <c r="C2" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="98"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -7171,10 +7368,10 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="104" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="105"/>
+      <c r="C3" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="100"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -7197,13 +7394,13 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
+      <c r="B6" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9"/>
@@ -7234,10 +7431,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
       </c>
       <c r="E9" s="55"/>
       <c r="F9" s="42"/>
@@ -7247,10 +7444,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10" s="54"/>
       <c r="F10" s="42"/>
@@ -7260,10 +7457,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
       </c>
       <c r="E11" s="55"/>
       <c r="F11" s="42"/>
@@ -7283,13 +7480,13 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
+      <c r="B14" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="9"/>
@@ -7300,7 +7497,7 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>9</v>
@@ -7317,13 +7514,13 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="D17" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="E17" s="21">
         <v>200</v>
@@ -7332,61 +7529,61 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="E18" s="24" t="s">
         <v>41</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>42</v>
       </c>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>83</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>85</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>62</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>63</v>
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>14</v>
@@ -7399,22 +7596,22 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>64</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>65</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="17" t="s">
-        <v>66</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>16</v>
@@ -7424,148 +7621,148 @@
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="17" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C25" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>19</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>20</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="29" t="s">
         <v>21</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>22</v>
       </c>
       <c r="E26" s="57"/>
       <c r="F26" s="58"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" s="57"/>
       <c r="F27" s="58"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>33</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>34</v>
       </c>
       <c r="E28" s="59"/>
       <c r="F28" s="58"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E29" s="60"/>
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>23</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>24</v>
       </c>
       <c r="E30" s="61"/>
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C31" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>25</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>26</v>
       </c>
       <c r="E31" s="62"/>
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C32" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="29" t="s">
         <v>27</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>28</v>
       </c>
       <c r="E32" s="61"/>
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>29</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>30</v>
       </c>
       <c r="E33" s="62"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C34" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>31</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>32</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="30"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E35" s="55"/>
       <c r="F35" s="42"/>
@@ -7578,13 +7775,13 @@
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="2:6" ht="16">
-      <c r="B37" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
+      <c r="B37" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="9"/>
@@ -7595,57 +7792,52 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="98" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="99"/>
-      <c r="E39" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="106"/>
+      <c r="E39" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="99"/>
+      <c r="F39" s="106"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="26">
         <v>401</v>
       </c>
-      <c r="C40" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="101"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="96"/>
+      <c r="C40" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="108"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="103"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="63">
         <v>402</v>
       </c>
-      <c r="C41" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="96"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="96"/>
+      <c r="C41" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="103"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="103"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="63">
         <v>403</v>
       </c>
-      <c r="C42" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="96"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="96"/>
+      <c r="C42" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="103"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B37:F37"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="C39:D39"/>
@@ -7654,6 +7846,11 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -7676,19 +7873,22 @@
   <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="79"/>
+      <c r="C2" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="76"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -7700,10 +7900,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="81"/>
+      <c r="C3" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="78"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -7726,13 +7926,13 @@
       <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -7760,26 +7960,26 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="45" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>32</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="42"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>62</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>63</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="42"/>
@@ -7800,7 +8000,7 @@
     </row>
     <row r="13" spans="2:6" ht="16">
       <c r="B13" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
@@ -7816,7 +8016,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>9</v>
@@ -7833,13 +8033,13 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="D16" s="45" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>39</v>
       </c>
       <c r="E16" s="41">
         <v>200</v>
@@ -7848,16 +8048,16 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="E17" s="41" t="s">
         <v>41</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>42</v>
       </c>
       <c r="F17" s="42"/>
     </row>
@@ -7870,7 +8070,7 @@
     </row>
     <row r="19" spans="2:6" ht="16">
       <c r="B19" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -7886,12 +8086,12 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="84"/>
+        <v>37</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="81"/>
       <c r="E21" s="46" t="s">
         <v>10</v>
       </c>
@@ -7901,10 +8101,10 @@
       <c r="B22" s="52">
         <v>401</v>
       </c>
-      <c r="C22" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="86"/>
+      <c r="C22" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="83"/>
       <c r="E22" s="53"/>
       <c r="F22" s="51"/>
     </row>
@@ -7912,10 +8112,10 @@
       <c r="B23" s="52">
         <v>422</v>
       </c>
-      <c r="C23" s="107" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="86"/>
+      <c r="C23" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="83"/>
       <c r="E23" s="53"/>
       <c r="F23" s="51"/>
     </row>
@@ -7923,10 +8123,10 @@
       <c r="B24" s="52">
         <v>423</v>
       </c>
-      <c r="C24" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="86"/>
+      <c r="C24" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="83"/>
       <c r="E24" s="53"/>
       <c r="F24" s="51"/>
     </row>
@@ -7974,10 +8174,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="79"/>
+      <c r="C2" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="76"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -7989,10 +8189,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="81"/>
+      <c r="C3" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="78"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -8015,13 +8215,13 @@
       <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -8052,10 +8252,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9" s="54"/>
       <c r="F9" s="42"/>
@@ -8065,10 +8265,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="42"/>
@@ -8078,10 +8278,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="55"/>
       <c r="F11" s="42"/>
@@ -8102,7 +8302,7 @@
     </row>
     <row r="14" spans="2:6" ht="16">
       <c r="B14" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
@@ -8118,7 +8318,7 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>9</v>
@@ -8135,13 +8335,13 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="D17" s="45" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>39</v>
       </c>
       <c r="E17" s="41">
         <v>200</v>
@@ -8150,41 +8350,41 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="E18" s="41" t="s">
         <v>41</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>42</v>
       </c>
       <c r="F18" s="42"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="45" t="s">
         <v>29</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>30</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="45" t="s">
         <v>62</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>63</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -8198,7 +8398,7 @@
     </row>
     <row r="22" spans="2:6" ht="16">
       <c r="B22" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -8214,12 +8414,12 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="84"/>
+        <v>37</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="81"/>
       <c r="E24" s="46" t="s">
         <v>10</v>
       </c>
@@ -8229,10 +8429,10 @@
       <c r="B25" s="52">
         <v>421</v>
       </c>
-      <c r="C25" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="86"/>
+      <c r="C25" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="83"/>
       <c r="E25" s="53"/>
       <c r="F25" s="51"/>
     </row>
@@ -8240,10 +8440,10 @@
       <c r="B26" s="52">
         <v>401</v>
       </c>
-      <c r="C26" s="107" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="86"/>
+      <c r="C26" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="83"/>
       <c r="E26" s="53"/>
       <c r="F26" s="51"/>
     </row>
@@ -8276,7 +8476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -8290,10 +8490,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="79"/>
+      <c r="C2" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="76"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -8305,10 +8505,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="81"/>
+      <c r="C3" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="78"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -8331,13 +8531,13 @@
       <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -8365,26 +8565,26 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="42"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>62</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>63</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="42"/>
@@ -8405,7 +8605,7 @@
     </row>
     <row r="13" spans="2:6" ht="16">
       <c r="B13" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
@@ -8421,7 +8621,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>9</v>
@@ -8438,13 +8638,13 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="D16" s="45" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>39</v>
       </c>
       <c r="E16" s="41">
         <v>200</v>
@@ -8453,16 +8653,16 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="E17" s="41" t="s">
         <v>41</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>42</v>
       </c>
       <c r="F17" s="42"/>
     </row>
@@ -8475,7 +8675,7 @@
     </row>
     <row r="19" spans="2:6" ht="16">
       <c r="B19" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -8491,12 +8691,12 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="84"/>
+        <v>37</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="81"/>
       <c r="E21" s="46" t="s">
         <v>10</v>
       </c>
@@ -8506,10 +8706,10 @@
       <c r="B22" s="52">
         <v>421</v>
       </c>
-      <c r="C22" s="107" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="86"/>
+      <c r="C22" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="83"/>
       <c r="E22" s="53"/>
       <c r="F22" s="51"/>
     </row>
@@ -8517,10 +8717,10 @@
       <c r="B23" s="52">
         <v>401</v>
       </c>
-      <c r="C23" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="86"/>
+      <c r="C23" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="83"/>
       <c r="E23" s="53"/>
       <c r="F23" s="51"/>
     </row>
@@ -8554,11 +8754,12 @@
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:F26"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8566,10 +8767,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="79"/>
+      <c r="C2" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="76"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -8581,10 +8782,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="81"/>
+      <c r="C3" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="78"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -8607,13 +8808,13 @@
       <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -8644,10 +8845,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="42"/>
@@ -8657,10 +8858,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="42"/>
@@ -8670,10 +8871,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="42"/>
@@ -8683,10 +8884,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="42"/>
@@ -8696,10 +8897,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="42"/>
@@ -8720,7 +8921,7 @@
     </row>
     <row r="16" spans="2:6" ht="16">
       <c r="B16" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
@@ -8736,7 +8937,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>9</v>
@@ -8753,13 +8954,13 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="D19" s="45" t="s">
         <v>38</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>39</v>
       </c>
       <c r="E19" s="41">
         <v>200</v>
@@ -8768,16 +8969,16 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="E20" s="41" t="s">
         <v>41</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>42</v>
       </c>
       <c r="F20" s="42"/>
     </row>
@@ -8790,7 +8991,7 @@
     </row>
     <row r="22" spans="2:6" ht="16">
       <c r="B22" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -8806,12 +9007,12 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="84"/>
+        <v>37</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="81"/>
       <c r="E24" s="46" t="s">
         <v>10</v>
       </c>
@@ -8821,10 +9022,10 @@
       <c r="B25" s="52">
         <v>401</v>
       </c>
-      <c r="C25" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="74"/>
+      <c r="C25" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="87"/>
       <c r="E25" s="53"/>
       <c r="F25" s="51"/>
     </row>
@@ -8832,22 +9033,22 @@
       <c r="B26">
         <v>431</v>
       </c>
-      <c r="C26" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="74"/>
+      <c r="C26" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="87"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8891,10 +9092,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="79"/>
+      <c r="C2" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="76"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -8906,10 +9107,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="81"/>
+      <c r="C3" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="78"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -8932,13 +9133,13 @@
       <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -8969,10 +9170,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="42"/>
@@ -8982,10 +9183,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="42"/>
@@ -8995,10 +9196,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="42"/>
@@ -9008,10 +9209,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="42"/>
@@ -9021,10 +9222,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="42"/>
@@ -9045,7 +9246,7 @@
     </row>
     <row r="16" spans="2:6" ht="16">
       <c r="B16" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
@@ -9061,7 +9262,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>9</v>
@@ -9078,13 +9279,13 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="D19" s="45" t="s">
         <v>38</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>39</v>
       </c>
       <c r="E19" s="41">
         <v>200</v>
@@ -9093,16 +9294,16 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="E20" s="41" t="s">
         <v>41</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>42</v>
       </c>
       <c r="F20" s="42"/>
     </row>
@@ -9115,7 +9316,7 @@
     </row>
     <row r="22" spans="2:6" ht="16">
       <c r="B22" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -9131,12 +9332,12 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="84"/>
+        <v>37</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="81"/>
       <c r="E24" s="46" t="s">
         <v>10</v>
       </c>
@@ -9146,10 +9347,10 @@
       <c r="B25" s="52">
         <v>431</v>
       </c>
-      <c r="C25" s="109" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="110"/>
+      <c r="C25" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="112"/>
       <c r="E25" s="53"/>
       <c r="F25" s="51"/>
     </row>
@@ -9157,39 +9358,39 @@
       <c r="B26">
         <v>432</v>
       </c>
-      <c r="C26" s="108" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="74"/>
+      <c r="C26" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="87"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">

--- a/doc/hotel_api.xlsx
+++ b/doc/hotel_api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="560" windowWidth="27820" windowHeight="15140" tabRatio="871" activeTab="16"/>
+    <workbookView xWindow="7360" yWindow="520" windowWidth="27820" windowHeight="14780" tabRatio="871" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户注册" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="239">
   <si>
     <t>API名称</t>
   </si>
@@ -843,6 +843,14 @@
   </si>
   <si>
     <t>相对路径</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1636,7 +1644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1799,26 +1807,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1855,135 +1848,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1999,6 +1863,138 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -2375,10 +2371,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -2390,10 +2386,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -2415,14 +2411,14 @@
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="2:6" ht="26">
+      <c r="B6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -2585,7 +2581,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
     </row>
-    <row r="20" spans="2:6" ht="16">
+    <row r="20" spans="2:6" ht="26">
       <c r="B20" s="38" t="s">
         <v>34</v>
       </c>
@@ -2655,7 +2651,7 @@
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
     </row>
-    <row r="26" spans="2:6" ht="16">
+    <row r="26" spans="2:6" ht="26">
       <c r="B26" s="38" t="s">
         <v>42</v>
       </c>
@@ -2675,10 +2671,10 @@
       <c r="B28" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="81"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="46" t="s">
         <v>10</v>
       </c>
@@ -2688,10 +2684,10 @@
       <c r="B29" s="52">
         <v>411</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="83"/>
+      <c r="D29" s="89"/>
       <c r="E29" s="53"/>
       <c r="F29" s="51"/>
     </row>
@@ -2699,115 +2695,115 @@
       <c r="B30" s="52">
         <v>412</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="85"/>
+      <c r="D30" s="80"/>
       <c r="E30" s="53"/>
       <c r="F30" s="51"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="66">
+      <c r="B31" s="61">
         <v>413</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="85"/>
+      <c r="D31" s="80"/>
       <c r="E31" s="53"/>
       <c r="F31" s="51"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="67">
+      <c r="B32" s="62">
         <v>414</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="87"/>
+      <c r="D32" s="77"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="67">
+      <c r="B33" s="62">
         <v>415</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="87"/>
+      <c r="D33" s="77"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="67">
+      <c r="B34" s="62">
         <v>416</v>
       </c>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="87"/>
+      <c r="D34" s="77"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="67">
+      <c r="B35" s="62">
         <v>417</v>
       </c>
-      <c r="C35" s="87" t="s">
+      <c r="C35" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="87"/>
+      <c r="D35" s="77"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="67">
+      <c r="B36" s="62">
         <v>418</v>
       </c>
-      <c r="C36" s="87" t="s">
+      <c r="C36" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="87"/>
+      <c r="D36" s="77"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="67">
+      <c r="B37" s="62">
         <v>419</v>
       </c>
-      <c r="C37" s="87" t="s">
+      <c r="C37" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="87"/>
+      <c r="D37" s="77"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="67">
+      <c r="B38" s="62">
         <v>420</v>
       </c>
-      <c r="C38" s="87" t="s">
+      <c r="C38" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="87"/>
+      <c r="D38" s="77"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="67">
+      <c r="B39" s="62">
         <v>421</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C39" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -2846,10 +2842,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -2861,10 +2857,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -2888,14 +2884,14 @@
       </c>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="2:6" ht="26">
+      <c r="B6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -3027,7 +3023,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="2:6" ht="18" thickTop="1" thickBot="1">
+    <row r="19" spans="2:6" ht="28" thickTop="1" thickBot="1">
       <c r="B19" s="38" t="s">
         <v>34</v>
       </c>
@@ -3041,7 +3037,7 @@
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="74"/>
+      <c r="F20" s="69"/>
     </row>
     <row r="21" spans="2:6" ht="16" thickTop="1">
       <c r="B21" s="40" t="s">
@@ -3198,7 +3194,7 @@
       <c r="E33" s="39"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="2:6" ht="18" thickTop="1" thickBot="1">
+    <row r="34" spans="2:6" ht="28" thickTop="1" thickBot="1">
       <c r="B34" s="38" t="s">
         <v>42</v>
       </c>
@@ -3212,73 +3208,73 @@
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
-      <c r="F35" s="74"/>
+      <c r="F35" s="69"/>
     </row>
     <row r="36" spans="2:6" ht="16" thickTop="1">
       <c r="B36" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="81"/>
+      <c r="D36" s="87"/>
       <c r="E36" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="75"/>
+      <c r="F36" s="70"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="52">
         <v>431</v>
       </c>
-      <c r="C37" s="111" t="s">
+      <c r="C37" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="112"/>
+      <c r="D37" s="113"/>
       <c r="E37" s="53"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38">
         <v>432</v>
       </c>
-      <c r="C38" s="110" t="s">
+      <c r="C38" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="87"/>
+      <c r="D38" s="77"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39">
         <v>433</v>
       </c>
-      <c r="C39" s="110" t="s">
+      <c r="C39" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="87"/>
+      <c r="D39" s="77"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -3314,10 +3310,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -3329,10 +3325,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -3354,14 +3350,14 @@
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="2:6" ht="26">
+      <c r="B6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -3474,7 +3470,7 @@
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
     </row>
-    <row r="16" spans="2:6" ht="16">
+    <row r="16" spans="2:6" ht="26">
       <c r="B16" s="38" t="s">
         <v>34</v>
       </c>
@@ -3564,10 +3560,10 @@
       <c r="B24" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="81"/>
+      <c r="D24" s="87"/>
       <c r="E24" s="46" t="s">
         <v>10</v>
       </c>
@@ -3577,10 +3573,10 @@
       <c r="B25" s="26">
         <v>411</v>
       </c>
-      <c r="C25" s="113" t="s">
+      <c r="C25" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="114"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="27"/>
       <c r="F25" s="28"/>
     </row>
@@ -3588,10 +3584,10 @@
       <c r="B26" s="26">
         <v>412</v>
       </c>
-      <c r="C26" s="113" t="s">
+      <c r="C26" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="114"/>
+      <c r="D26" s="115"/>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
     </row>
@@ -3599,10 +3595,10 @@
       <c r="B27" s="26">
         <v>413</v>
       </c>
-      <c r="C27" s="113" t="s">
+      <c r="C27" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="114"/>
+      <c r="D27" s="115"/>
       <c r="E27" s="27"/>
       <c r="F27" s="28"/>
     </row>
@@ -3610,10 +3606,10 @@
       <c r="B28" s="26">
         <v>414</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="114"/>
+      <c r="D28" s="115"/>
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
     </row>
@@ -3621,10 +3617,10 @@
       <c r="B29" s="26">
         <v>415</v>
       </c>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="114"/>
+      <c r="D29" s="115"/>
       <c r="E29" s="27"/>
       <c r="F29" s="28"/>
     </row>
@@ -3632,25 +3628,25 @@
       <c r="B30" s="26">
         <v>416</v>
       </c>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="114"/>
+      <c r="D30" s="115"/>
       <c r="E30" s="27"/>
       <c r="F30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -3686,10 +3682,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -3701,10 +3697,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -3726,14 +3722,14 @@
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="2:6" ht="26">
+      <c r="B6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -3870,7 +3866,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
     </row>
-    <row r="18" spans="2:6" ht="16">
+    <row r="18" spans="2:6" ht="26">
       <c r="B18" s="38" t="s">
         <v>34</v>
       </c>
@@ -3940,7 +3936,7 @@
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
     </row>
-    <row r="24" spans="2:6" ht="16">
+    <row r="24" spans="2:6" ht="26">
       <c r="B24" s="38" t="s">
         <v>42</v>
       </c>
@@ -3960,10 +3956,10 @@
       <c r="B26" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="81"/>
+      <c r="D26" s="87"/>
       <c r="E26" s="46" t="s">
         <v>10</v>
       </c>
@@ -3973,10 +3969,10 @@
       <c r="B27" s="26">
         <v>411</v>
       </c>
-      <c r="C27" s="113" t="s">
+      <c r="C27" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="114"/>
+      <c r="D27" s="115"/>
       <c r="E27" s="27"/>
       <c r="F27" s="28"/>
     </row>
@@ -3984,10 +3980,10 @@
       <c r="B28" s="26">
         <v>412</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="114"/>
+      <c r="D28" s="115"/>
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
     </row>
@@ -3995,10 +3991,10 @@
       <c r="B29" s="26">
         <v>414</v>
       </c>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="114"/>
+      <c r="D29" s="115"/>
       <c r="E29" s="27"/>
       <c r="F29" s="28"/>
     </row>
@@ -4006,10 +4002,10 @@
       <c r="B30" s="26">
         <v>415</v>
       </c>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="114"/>
+      <c r="D30" s="115"/>
       <c r="E30" s="27"/>
       <c r="F30" s="28"/>
     </row>
@@ -4017,10 +4013,10 @@
       <c r="B31" s="26">
         <v>416</v>
       </c>
-      <c r="C31" s="113" t="s">
+      <c r="C31" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="114"/>
+      <c r="D31" s="115"/>
       <c r="E31" s="27"/>
       <c r="F31" s="28"/>
     </row>
@@ -4028,10 +4024,10 @@
       <c r="B32" s="26">
         <v>417</v>
       </c>
-      <c r="C32" s="113" t="s">
+      <c r="C32" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="114"/>
+      <c r="D32" s="115"/>
       <c r="E32" s="27"/>
       <c r="F32" s="28"/>
     </row>
@@ -4039,10 +4035,10 @@
       <c r="B33" s="26">
         <v>418</v>
       </c>
-      <c r="C33" s="113" t="s">
+      <c r="C33" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="114"/>
+      <c r="D33" s="115"/>
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
     </row>
@@ -4050,10 +4046,10 @@
       <c r="B34" s="26">
         <v>419</v>
       </c>
-      <c r="C34" s="113" t="s">
+      <c r="C34" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="114"/>
+      <c r="D34" s="115"/>
       <c r="E34" s="27"/>
       <c r="F34" s="28"/>
     </row>
@@ -4061,15 +4057,20 @@
       <c r="B35" s="26">
         <v>420</v>
       </c>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="114"/>
+      <c r="D35" s="115"/>
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
@@ -4078,11 +4079,6 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -4105,7 +4101,7 @@
   <dimension ref="B2:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F19"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4118,10 +4114,10 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="98"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4133,10 +4129,10 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="100"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -4158,14 +4154,14 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="115" t="s">
+    <row r="6" spans="2:6" ht="26">
+      <c r="B6" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9"/>
@@ -4218,17 +4214,17 @@
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="E11" s="122"/>
-      <c r="F11" s="123"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="12" t="s">
@@ -4341,7 +4337,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="2:6" ht="16">
+    <row r="21" spans="2:6" ht="26">
       <c r="B21" s="8" t="s">
         <v>80</v>
       </c>
@@ -4408,10 +4404,10 @@
       <c r="B26" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="68" t="s">
         <v>202</v>
       </c>
       <c r="E26" s="24"/>
@@ -4554,7 +4550,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="2:6" ht="16">
+    <row r="38" spans="2:6" ht="26">
       <c r="B38" s="8" t="s">
         <v>42</v>
       </c>
@@ -4574,10 +4570,10 @@
       <c r="B40" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="117" t="s">
+      <c r="C40" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="118"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="25" t="s">
         <v>10</v>
       </c>
@@ -4587,10 +4583,10 @@
       <c r="B41" s="26">
         <v>431</v>
       </c>
-      <c r="C41" s="113" t="s">
+      <c r="C41" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="114"/>
+      <c r="D41" s="115"/>
       <c r="E41" s="27"/>
       <c r="F41" s="28"/>
     </row>
@@ -4598,10 +4594,10 @@
       <c r="B42" s="26">
         <v>432</v>
       </c>
-      <c r="C42" s="113" t="s">
+      <c r="C42" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="114"/>
+      <c r="D42" s="115"/>
       <c r="E42" s="27"/>
       <c r="F42" s="28"/>
     </row>
@@ -4609,10 +4605,10 @@
       <c r="B43" s="26">
         <v>433</v>
       </c>
-      <c r="C43" s="113" t="s">
+      <c r="C43" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="114"/>
+      <c r="D43" s="115"/>
       <c r="E43" s="27"/>
       <c r="F43" s="28"/>
     </row>
@@ -4659,10 +4655,10 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="98"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4674,10 +4670,10 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="100"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -4699,14 +4695,14 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="116" t="s">
+    <row r="6" spans="2:6" ht="26">
+      <c r="B6" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9"/>
@@ -4782,7 +4778,7 @@
         <v>167</v>
       </c>
       <c r="E12" s="16"/>
-      <c r="F12" s="124" t="s">
+      <c r="F12" s="76" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4793,7 +4789,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="2:6" ht="16">
+    <row r="14" spans="2:6" ht="26">
       <c r="B14" s="8" t="s">
         <v>80</v>
       </c>
@@ -4863,7 +4859,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="2:6" ht="16">
+    <row r="20" spans="2:6" ht="26">
       <c r="B20" s="8" t="s">
         <v>96</v>
       </c>
@@ -4883,10 +4879,10 @@
       <c r="B22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="117" t="s">
+      <c r="C22" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="118"/>
+      <c r="D22" s="119"/>
       <c r="E22" s="25" t="s">
         <v>10</v>
       </c>
@@ -4896,10 +4892,10 @@
       <c r="B23" s="26">
         <v>411</v>
       </c>
-      <c r="C23" s="113" t="s">
+      <c r="C23" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="114"/>
+      <c r="D23" s="115"/>
       <c r="E23" s="27"/>
       <c r="F23" s="28"/>
     </row>
@@ -4907,10 +4903,10 @@
       <c r="B24" s="26">
         <v>412</v>
       </c>
-      <c r="C24" s="113" t="s">
+      <c r="C24" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="114"/>
+      <c r="D24" s="115"/>
       <c r="E24" s="27"/>
       <c r="F24" s="28"/>
     </row>
@@ -4918,10 +4914,10 @@
       <c r="B25" s="26">
         <v>413</v>
       </c>
-      <c r="C25" s="113" t="s">
+      <c r="C25" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="114"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="27"/>
       <c r="F25" s="28"/>
     </row>
@@ -4929,10 +4925,10 @@
       <c r="B26" s="26">
         <v>414</v>
       </c>
-      <c r="C26" s="113" t="s">
+      <c r="C26" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="114"/>
+      <c r="D26" s="115"/>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
     </row>
@@ -4940,10 +4936,10 @@
       <c r="B27" s="26">
         <v>417</v>
       </c>
-      <c r="C27" s="113" t="s">
+      <c r="C27" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="114"/>
+      <c r="D27" s="115"/>
       <c r="E27" s="27"/>
       <c r="F27" s="28"/>
     </row>
@@ -4979,7 +4975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
@@ -4992,10 +4988,10 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="98"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5007,10 +5003,10 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="100"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -5032,14 +5028,14 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="116" t="s">
+    <row r="6" spans="2:6" ht="26">
+      <c r="B6" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9"/>
@@ -5176,7 +5172,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="2:6" ht="16">
+    <row r="18" spans="2:6" ht="26">
       <c r="B18" s="8" t="s">
         <v>80</v>
       </c>
@@ -5246,7 +5242,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="2:6" ht="16">
+    <row r="24" spans="2:6" ht="26">
       <c r="B24" s="8" t="s">
         <v>42</v>
       </c>
@@ -5266,10 +5262,10 @@
       <c r="B26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="117" t="s">
+      <c r="C26" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="118"/>
+      <c r="D26" s="119"/>
       <c r="E26" s="25" t="s">
         <v>10</v>
       </c>
@@ -5279,10 +5275,10 @@
       <c r="B27" s="26">
         <v>411</v>
       </c>
-      <c r="C27" s="113" t="s">
+      <c r="C27" s="114" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="114"/>
+      <c r="D27" s="115"/>
       <c r="E27" s="27"/>
       <c r="F27" s="28"/>
     </row>
@@ -5290,10 +5286,10 @@
       <c r="B28" s="26">
         <v>412</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="114"/>
+      <c r="D28" s="115"/>
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
     </row>
@@ -5301,10 +5297,10 @@
       <c r="B29" s="26">
         <v>413</v>
       </c>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="114"/>
+      <c r="D29" s="115"/>
       <c r="E29" s="27"/>
       <c r="F29" s="28"/>
     </row>
@@ -5312,10 +5308,10 @@
       <c r="B30" s="26">
         <v>414</v>
       </c>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="114"/>
+      <c r="D30" s="115"/>
       <c r="E30" s="27"/>
       <c r="F30" s="28"/>
     </row>
@@ -5323,10 +5319,10 @@
       <c r="B31" s="26">
         <v>415</v>
       </c>
-      <c r="C31" s="113" t="s">
+      <c r="C31" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="114"/>
+      <c r="D31" s="115"/>
       <c r="E31" s="27"/>
       <c r="F31" s="28"/>
     </row>
@@ -5334,10 +5330,10 @@
       <c r="B32" s="26">
         <v>416</v>
       </c>
-      <c r="C32" s="113" t="s">
+      <c r="C32" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="114"/>
+      <c r="D32" s="115"/>
       <c r="E32" s="27"/>
       <c r="F32" s="28"/>
     </row>
@@ -5345,26 +5341,26 @@
       <c r="B33" s="26">
         <v>417</v>
       </c>
-      <c r="C33" s="113" t="s">
+      <c r="C33" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="114"/>
+      <c r="D33" s="115"/>
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -5401,10 +5397,10 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="98"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5416,10 +5412,10 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="100"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -5441,14 +5437,14 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="116" t="s">
+    <row r="6" spans="2:6" ht="26">
+      <c r="B6" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9"/>
@@ -5572,7 +5568,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="2:6" ht="16">
+    <row r="17" spans="2:6" ht="26">
       <c r="B17" s="8" t="s">
         <v>80</v>
       </c>
@@ -5743,7 +5739,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="2:6" ht="16">
+    <row r="32" spans="2:6" ht="26">
       <c r="B32" s="8" t="s">
         <v>96</v>
       </c>
@@ -5763,10 +5759,10 @@
       <c r="B34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="117" t="s">
+      <c r="C34" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="118"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="25" t="s">
         <v>10</v>
       </c>
@@ -5776,10 +5772,10 @@
       <c r="B35" s="26">
         <v>411</v>
       </c>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="114" t="s">
         <v>179</v>
       </c>
-      <c r="D35" s="114"/>
+      <c r="D35" s="115"/>
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
     </row>
@@ -5787,10 +5783,10 @@
       <c r="B36" s="26">
         <v>412</v>
       </c>
-      <c r="C36" s="113" t="s">
+      <c r="C36" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="114"/>
+      <c r="D36" s="115"/>
       <c r="E36" s="27"/>
       <c r="F36" s="28"/>
     </row>
@@ -5798,10 +5794,10 @@
       <c r="B37" s="26">
         <v>413</v>
       </c>
-      <c r="C37" s="113" t="s">
+      <c r="C37" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="114"/>
+      <c r="D37" s="115"/>
       <c r="E37" s="27"/>
       <c r="F37" s="28"/>
     </row>
@@ -5809,10 +5805,10 @@
       <c r="B38" s="26">
         <v>414</v>
       </c>
-      <c r="C38" s="113" t="s">
+      <c r="C38" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="114"/>
+      <c r="D38" s="115"/>
       <c r="E38" s="27"/>
       <c r="F38" s="28"/>
     </row>
@@ -5820,10 +5816,10 @@
       <c r="B39" s="26">
         <v>415</v>
       </c>
-      <c r="C39" s="113" t="s">
+      <c r="C39" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="114"/>
+      <c r="D39" s="115"/>
       <c r="E39" s="27"/>
       <c r="F39" s="28"/>
     </row>
@@ -5831,10 +5827,10 @@
       <c r="B40" s="26">
         <v>416</v>
       </c>
-      <c r="C40" s="113" t="s">
+      <c r="C40" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="D40" s="114"/>
+      <c r="D40" s="115"/>
       <c r="E40" s="27"/>
       <c r="F40" s="28"/>
     </row>
@@ -5842,10 +5838,10 @@
       <c r="B41" s="26">
         <v>417</v>
       </c>
-      <c r="C41" s="113" t="s">
+      <c r="C41" s="114" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="114"/>
+      <c r="D41" s="115"/>
       <c r="E41" s="27"/>
       <c r="F41" s="28"/>
     </row>
@@ -5853,10 +5849,10 @@
       <c r="B42" s="26">
         <v>418</v>
       </c>
-      <c r="C42" s="113" t="s">
+      <c r="C42" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="114"/>
+      <c r="D42" s="115"/>
       <c r="E42" s="27"/>
       <c r="F42" s="28"/>
     </row>
@@ -5864,10 +5860,10 @@
       <c r="B43" s="26">
         <v>419</v>
       </c>
-      <c r="C43" s="113" t="s">
+      <c r="C43" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="114"/>
+      <c r="D43" s="115"/>
       <c r="E43" s="27"/>
       <c r="F43" s="28"/>
     </row>
@@ -5875,10 +5871,10 @@
       <c r="B44" s="26">
         <v>420</v>
       </c>
-      <c r="C44" s="113" t="s">
+      <c r="C44" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="114"/>
+      <c r="D44" s="115"/>
       <c r="E44" s="27"/>
       <c r="F44" s="28"/>
     </row>
@@ -5886,10 +5882,10 @@
       <c r="B45" s="26">
         <v>415</v>
       </c>
-      <c r="C45" s="113" t="s">
+      <c r="C45" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="114"/>
+      <c r="D45" s="115"/>
       <c r="E45" s="27"/>
       <c r="F45" s="28"/>
     </row>
@@ -5897,31 +5893,31 @@
       <c r="B46" s="26">
         <v>416</v>
       </c>
-      <c r="C46" s="113" t="s">
+      <c r="C46" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="D46" s="114"/>
+      <c r="D46" s="115"/>
       <c r="E46" s="27"/>
       <c r="F46" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -5943,7 +5939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -5957,10 +5953,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -5972,10 +5968,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -5997,14 +5993,14 @@
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="2:6" ht="17" thickBot="1">
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="2:6" ht="27" thickBot="1">
+      <c r="B6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="2:6" ht="16" thickTop="1">
       <c r="B7" s="39"/>
@@ -6087,7 +6083,7 @@
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
     </row>
-    <row r="16" spans="2:6" ht="17" thickBot="1">
+    <row r="16" spans="2:6" ht="27" thickBot="1">
       <c r="B16" s="38" t="s">
         <v>34</v>
       </c>
@@ -6157,7 +6153,7 @@
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
     </row>
-    <row r="22" spans="2:6" ht="17" thickBot="1">
+    <row r="22" spans="2:6" ht="27" thickBot="1">
       <c r="B22" s="38" t="s">
         <v>42</v>
       </c>
@@ -6177,10 +6173,10 @@
       <c r="B24" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="81"/>
+      <c r="D24" s="87"/>
       <c r="E24" s="46" t="s">
         <v>10</v>
       </c>
@@ -6190,10 +6186,10 @@
       <c r="B25" s="52">
         <v>401</v>
       </c>
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="112" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="112"/>
+      <c r="D25" s="113"/>
       <c r="E25" s="53"/>
       <c r="F25" s="51"/>
     </row>
@@ -6201,19 +6197,19 @@
       <c r="B26">
         <v>403</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="111" t="s">
         <v>199</v>
       </c>
-      <c r="D26" s="87"/>
+      <c r="D26" s="77"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27">
         <v>404</v>
       </c>
-      <c r="C27" s="110" t="s">
+      <c r="C27" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="87"/>
+      <c r="D27" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6259,7 +6255,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17">
-      <c r="A1" s="64"/>
+      <c r="A1" s="59"/>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
@@ -6267,14 +6263,14 @@
       <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" ht="17">
-      <c r="A2" s="64"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -6283,14 +6279,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17">
-      <c r="A3" s="64"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -6299,7 +6295,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17">
-      <c r="A4" s="64"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -6307,25 +6303,25 @@
       <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:6" ht="17">
-      <c r="A5" s="64"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="1:6" ht="17">
-      <c r="A6" s="64"/>
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="1:6" ht="26">
+      <c r="A6" s="59"/>
+      <c r="B6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="1:6" ht="17">
-      <c r="A7" s="64"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
@@ -6333,7 +6329,7 @@
       <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:6" ht="17">
-      <c r="A8" s="64"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="40" t="s">
         <v>8</v>
       </c>
@@ -6351,7 +6347,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="65"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
@@ -6367,7 +6363,7 @@
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="65"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
@@ -6383,7 +6379,7 @@
       <c r="F10" s="42"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="65"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="37"/>
       <c r="C11" s="50"/>
       <c r="D11" s="37"/>
@@ -6391,7 +6387,7 @@
       <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="65"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
@@ -6399,25 +6395,25 @@
       <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" ht="17">
-      <c r="A13" s="64"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
     </row>
-    <row r="14" spans="1:6" ht="17">
-      <c r="A14" s="64"/>
-      <c r="B14" s="79" t="s">
+    <row r="14" spans="1:6" ht="26">
+      <c r="A14" s="59"/>
+      <c r="B14" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
     </row>
     <row r="15" spans="1:6" ht="17">
-      <c r="A15" s="64"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -6425,7 +6421,7 @@
       <c r="F15" s="39"/>
     </row>
     <row r="16" spans="1:6" ht="17">
-      <c r="A16" s="64"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="40" t="s">
         <v>35</v>
       </c>
@@ -6443,7 +6439,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="65"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="44" t="s">
         <v>36</v>
       </c>
@@ -6459,7 +6455,7 @@
       <c r="F17" s="42"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="65"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="44" t="s">
         <v>36</v>
       </c>
@@ -6475,7 +6471,7 @@
       <c r="F18" s="42"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="65"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="44" t="s">
         <v>57</v>
       </c>
@@ -6489,7 +6485,7 @@
       <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="65"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="44" t="s">
         <v>60</v>
       </c>
@@ -6503,7 +6499,7 @@
       <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="65"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="44" t="s">
         <v>60</v>
       </c>
@@ -6517,7 +6513,7 @@
       <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="65"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="44" t="s">
         <v>60</v>
       </c>
@@ -6533,7 +6529,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="65"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="44" t="s">
         <v>60</v>
       </c>
@@ -6549,7 +6545,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="65"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="44" t="s">
         <v>60</v>
       </c>
@@ -6563,7 +6559,7 @@
       <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="65"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="44" t="s">
         <v>60</v>
       </c>
@@ -6577,7 +6573,7 @@
       <c r="F25" s="42"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="65"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="44" t="s">
         <v>60</v>
       </c>
@@ -6591,7 +6587,7 @@
       <c r="F26" s="42"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="65"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="44" t="s">
         <v>60</v>
       </c>
@@ -6601,11 +6597,11 @@
       <c r="D27" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="42"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="65"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="44" t="s">
         <v>60</v>
       </c>
@@ -6619,7 +6615,7 @@
       <c r="F28" s="42"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="65"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="44" t="s">
         <v>60</v>
       </c>
@@ -6633,7 +6629,7 @@
       <c r="F29" s="42"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="65"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="44" t="s">
         <v>60</v>
       </c>
@@ -6647,7 +6643,7 @@
       <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="65"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="44" t="s">
         <v>60</v>
       </c>
@@ -6661,7 +6657,7 @@
       <c r="F31" s="42"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="65"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="44" t="s">
         <v>69</v>
       </c>
@@ -6675,7 +6671,7 @@
       <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" ht="17">
-      <c r="A33" s="64"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="44"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -6683,33 +6679,33 @@
       <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" ht="17">
-      <c r="A34" s="64"/>
-      <c r="B34" s="69"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="64"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34" s="39"/>
       <c r="F34" s="43"/>
     </row>
     <row r="35" spans="1:6" ht="17">
-      <c r="A35" s="64"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
     </row>
-    <row r="36" spans="1:6" ht="17">
-      <c r="A36" s="64"/>
-      <c r="B36" s="79" t="s">
+    <row r="36" spans="1:6" ht="26">
+      <c r="A36" s="59"/>
+      <c r="B36" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
     </row>
     <row r="37" spans="1:6" ht="17">
-      <c r="A37" s="64"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
@@ -6717,65 +6713,65 @@
       <c r="F37" s="39"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="65"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="92" t="s">
+      <c r="C38" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92" t="s">
+      <c r="D38" s="93"/>
+      <c r="E38" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="92"/>
+      <c r="F38" s="93"/>
     </row>
     <row r="39" spans="1:6" ht="17">
-      <c r="A39" s="64"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="52">
         <v>401</v>
       </c>
-      <c r="C39" s="93" t="s">
+      <c r="C39" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="94"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
     </row>
     <row r="40" spans="1:6" ht="17">
-      <c r="A40" s="64"/>
-      <c r="B40" s="66">
+      <c r="A40" s="59"/>
+      <c r="B40" s="61">
         <v>402</v>
       </c>
-      <c r="C40" s="95" t="s">
+      <c r="C40" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="90"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
     </row>
     <row r="41" spans="1:6" ht="17">
-      <c r="A41" s="64"/>
-      <c r="B41" s="66">
+      <c r="A41" s="59"/>
+      <c r="B41" s="61">
         <v>403</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="C41" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
     </row>
     <row r="42" spans="1:6" ht="17">
-      <c r="A42" s="64"/>
-      <c r="B42" s="71"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
     </row>
     <row r="43" spans="1:6" ht="17">
-      <c r="A43" s="64"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
@@ -6783,7 +6779,7 @@
       <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" ht="17">
-      <c r="A44" s="64"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
@@ -6791,7 +6787,7 @@
       <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:6" ht="17">
-      <c r="A45" s="64"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
@@ -6799,7 +6795,7 @@
       <c r="F45" s="39"/>
     </row>
     <row r="46" spans="1:6" ht="17">
-      <c r="A46" s="64"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
@@ -6807,7 +6803,7 @@
       <c r="F46" s="39"/>
     </row>
     <row r="47" spans="1:6" ht="17">
-      <c r="A47" s="64"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
@@ -6823,6 +6819,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B36:F36"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="C38:D38"/>
@@ -6830,11 +6831,6 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B36:F36"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -6856,8 +6852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6869,7 +6865,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17">
-      <c r="A1" s="64"/>
+      <c r="A1" s="59"/>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
@@ -6877,14 +6873,14 @@
       <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" ht="17">
-      <c r="A2" s="64"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -6893,14 +6889,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17">
-      <c r="A3" s="64"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -6909,7 +6905,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17">
-      <c r="A4" s="64"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -6917,25 +6913,25 @@
       <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:6" ht="17">
-      <c r="A5" s="64"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="1:6" ht="17">
-      <c r="A6" s="64"/>
-      <c r="B6" s="96" t="s">
+    <row r="6" spans="1:6" ht="26">
+      <c r="A6" s="59"/>
+      <c r="B6" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="1:6" ht="17">
-      <c r="A7" s="64"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
@@ -6943,7 +6939,7 @@
       <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:6" ht="17">
-      <c r="A8" s="64"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="40" t="s">
         <v>8</v>
       </c>
@@ -6961,7 +6957,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="65"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
@@ -6975,7 +6971,7 @@
       <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="65"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
@@ -6991,7 +6987,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="65"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
@@ -7004,7 +7000,7 @@
       <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="65"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
@@ -7017,7 +7013,7 @@
       <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:6" ht="17">
-      <c r="A13" s="64"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
@@ -7031,7 +7027,7 @@
       <c r="F13" s="42"/>
     </row>
     <row r="14" spans="1:6" ht="17">
-      <c r="A14" s="64"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
@@ -7045,7 +7041,7 @@
       <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:6" ht="17">
-      <c r="A15" s="64"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
@@ -7059,43 +7055,49 @@
       <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:6" ht="16" customHeight="1" thickBot="1">
-      <c r="A16" s="64"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="71" t="s">
         <v>220</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="65"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="71" t="s">
         <v>221</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="43"/>
     </row>
     <row r="18" spans="1:6" ht="16" thickTop="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>238</v>
+      </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
     </row>
-    <row r="19" spans="1:6" ht="16">
-      <c r="A19" s="65"/>
+    <row r="19" spans="1:6" ht="26">
+      <c r="A19" s="60"/>
       <c r="B19" s="38" t="s">
         <v>34</v>
       </c>
@@ -7105,7 +7107,7 @@
       <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="65"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
@@ -7113,7 +7115,7 @@
       <c r="F20" s="39"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="65"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="40" t="s">
         <v>35</v>
       </c>
@@ -7131,7 +7133,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="65"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="44" t="s">
         <v>36</v>
       </c>
@@ -7147,7 +7149,7 @@
       <c r="F22" s="42"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="65"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="44" t="s">
         <v>36</v>
       </c>
@@ -7163,15 +7165,15 @@
       <c r="F23" s="42"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="65"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
     </row>
-    <row r="25" spans="1:6" ht="16">
-      <c r="A25" s="65"/>
+    <row r="25" spans="1:6" ht="26">
+      <c r="A25" s="60"/>
       <c r="B25" s="38" t="s">
         <v>42</v>
       </c>
@@ -7181,7 +7183,7 @@
       <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="65"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
@@ -7189,119 +7191,124 @@
       <c r="F26" s="39"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="65"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="81"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="46" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="46"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="65"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="52">
         <v>411</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="83"/>
+      <c r="D28" s="89"/>
       <c r="E28" s="53"/>
       <c r="F28" s="51"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="65"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="52">
         <v>412</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="85"/>
+      <c r="D29" s="80"/>
       <c r="E29" s="53"/>
       <c r="F29" s="51"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="65"/>
-      <c r="B30" s="66">
+      <c r="A30" s="60"/>
+      <c r="B30" s="61">
         <v>413</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="85"/>
+      <c r="D30" s="80"/>
       <c r="E30" s="53"/>
       <c r="F30" s="51"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="65"/>
-      <c r="B31" s="67">
+      <c r="A31" s="60"/>
+      <c r="B31" s="62">
         <v>414</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="87"/>
+      <c r="D31" s="77"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="65"/>
-      <c r="B32" s="67">
+      <c r="A32" s="60"/>
+      <c r="B32" s="62">
         <v>415</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="87"/>
+      <c r="D32" s="77"/>
     </row>
     <row r="33" spans="1:4" ht="17">
-      <c r="A33" s="64"/>
-      <c r="B33" s="67">
+      <c r="A33" s="59"/>
+      <c r="B33" s="62">
         <v>416</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="87"/>
+      <c r="D33" s="77"/>
     </row>
     <row r="34" spans="1:4" ht="17">
-      <c r="A34" s="64"/>
-      <c r="B34" s="67">
+      <c r="A34" s="59"/>
+      <c r="B34" s="62">
         <v>417</v>
       </c>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="87"/>
+      <c r="D34" s="77"/>
     </row>
     <row r="35" spans="1:4" ht="17">
-      <c r="A35" s="64"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
     </row>
     <row r="36" spans="1:4" ht="17">
-      <c r="A36" s="64"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
+      <c r="A36" s="59"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
     </row>
     <row r="37" spans="1:4" ht="17">
-      <c r="A37" s="64"/>
-      <c r="B37" s="67"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="62"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="65"/>
-      <c r="B38" s="67"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="62"/>
     </row>
     <row r="39" spans="1:4" ht="17">
-      <c r="A39" s="64"/>
+      <c r="A39" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
@@ -7310,11 +7317,6 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -7336,15 +7338,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="41.1640625" customWidth="1"/>
   </cols>
@@ -7353,10 +7355,10 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="98"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -7368,10 +7370,10 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="100"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -7393,14 +7395,14 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="101" t="s">
+    <row r="6" spans="2:6" ht="26">
+      <c r="B6" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9"/>
@@ -7427,49 +7429,49 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="42"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="54"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="42"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="55"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="42"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="57"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="2:6">
@@ -7479,14 +7481,14 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="101" t="s">
+    <row r="14" spans="2:6" ht="26">
+      <c r="B14" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="9"/>
@@ -7513,7 +7515,7 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="57" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="20" t="s">
@@ -7522,266 +7524,265 @@
       <c r="D17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="120">
         <v>200</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="120" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="120"/>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="56"/>
+      <c r="E21" s="120"/>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="120"/>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="120"/>
       <c r="F23" s="17" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="56"/>
+      <c r="E24" s="120"/>
       <c r="F24" s="17" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="58"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="60"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="61"/>
+      <c r="E30" s="120"/>
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="62"/>
+      <c r="E31" s="120"/>
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="61"/>
+      <c r="E32" s="120"/>
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="62"/>
+      <c r="E33" s="120"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="30"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="55"/>
-      <c r="F35" s="42"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="2:6" ht="16">
-      <c r="B37" s="101" t="s">
+    </row>
+    <row r="37" spans="2:6" ht="26">
+      <c r="B37" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="9"/>
@@ -7794,50 +7795,55 @@
       <c r="B39" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="105" t="s">
+      <c r="C39" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="106"/>
-      <c r="E39" s="105" t="s">
+      <c r="D39" s="102"/>
+      <c r="E39" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="106"/>
+      <c r="F39" s="102"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="26">
         <v>401</v>
       </c>
-      <c r="C40" s="107" t="s">
+      <c r="C40" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="108"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="103"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="99"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="63">
+      <c r="B41" s="58">
         <v>402</v>
       </c>
-      <c r="C41" s="104" t="s">
+      <c r="C41" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="103"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="103"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="99"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="63">
+      <c r="B42" s="58">
         <v>403</v>
       </c>
-      <c r="C42" s="102" t="s">
+      <c r="C42" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="103"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="103"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B37:F37"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="C39:D39"/>
@@ -7846,11 +7852,6 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
@@ -7885,10 +7886,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -7900,10 +7901,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -7925,14 +7926,14 @@
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="2:6" ht="26">
+      <c r="B6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -7998,7 +7999,7 @@
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
     </row>
-    <row r="13" spans="2:6" ht="16">
+    <row r="13" spans="2:6" ht="26">
       <c r="B13" s="38" t="s">
         <v>34</v>
       </c>
@@ -8068,7 +8069,7 @@
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
     </row>
-    <row r="19" spans="2:6" ht="16">
+    <row r="19" spans="2:6" ht="26">
       <c r="B19" s="38" t="s">
         <v>42</v>
       </c>
@@ -8088,10 +8089,10 @@
       <c r="B21" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="81"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="46" t="s">
         <v>10</v>
       </c>
@@ -8101,10 +8102,10 @@
       <c r="B22" s="52">
         <v>401</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="83"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="53"/>
       <c r="F22" s="51"/>
     </row>
@@ -8112,10 +8113,10 @@
       <c r="B23" s="52">
         <v>422</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="89"/>
       <c r="E23" s="53"/>
       <c r="F23" s="51"/>
     </row>
@@ -8123,10 +8124,10 @@
       <c r="B24" s="52">
         <v>423</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="83"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="53"/>
       <c r="F24" s="51"/>
     </row>
@@ -8174,10 +8175,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -8189,10 +8190,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -8214,14 +8215,14 @@
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="2:6" ht="26">
+      <c r="B6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -8416,10 +8417,10 @@
       <c r="B24" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="81"/>
+      <c r="D24" s="87"/>
       <c r="E24" s="46" t="s">
         <v>10</v>
       </c>
@@ -8429,10 +8430,10 @@
       <c r="B25" s="52">
         <v>421</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="83"/>
+      <c r="D25" s="89"/>
       <c r="E25" s="53"/>
       <c r="F25" s="51"/>
     </row>
@@ -8440,10 +8441,10 @@
       <c r="B26" s="52">
         <v>401</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="83"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="53"/>
       <c r="F26" s="51"/>
     </row>
@@ -8490,10 +8491,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -8505,10 +8506,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -8530,14 +8531,14 @@
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="2:6" ht="26">
+      <c r="B6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -8603,7 +8604,7 @@
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
     </row>
-    <row r="13" spans="2:6" ht="16">
+    <row r="13" spans="2:6" ht="26">
       <c r="B13" s="38" t="s">
         <v>34</v>
       </c>
@@ -8693,10 +8694,10 @@
       <c r="B21" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="81"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="46" t="s">
         <v>10</v>
       </c>
@@ -8706,10 +8707,10 @@
       <c r="B22" s="52">
         <v>421</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="83"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="53"/>
       <c r="F22" s="51"/>
     </row>
@@ -8717,10 +8718,10 @@
       <c r="B23" s="52">
         <v>401</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="89"/>
       <c r="E23" s="53"/>
       <c r="F23" s="51"/>
     </row>
@@ -8767,10 +8768,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -8782,10 +8783,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -8807,14 +8808,14 @@
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="2:6" ht="26">
+      <c r="B6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -8919,7 +8920,7 @@
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
     </row>
-    <row r="16" spans="2:6" ht="16">
+    <row r="16" spans="2:6" ht="26">
       <c r="B16" s="38" t="s">
         <v>34</v>
       </c>
@@ -8989,7 +8990,7 @@
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
     </row>
-    <row r="22" spans="2:6" ht="16">
+    <row r="22" spans="2:6" ht="26">
       <c r="B22" s="38" t="s">
         <v>42</v>
       </c>
@@ -9009,10 +9010,10 @@
       <c r="B24" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="81"/>
+      <c r="D24" s="87"/>
       <c r="E24" s="46" t="s">
         <v>10</v>
       </c>
@@ -9022,10 +9023,10 @@
       <c r="B25" s="52">
         <v>401</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="53"/>
       <c r="F25" s="51"/>
     </row>
@@ -9033,22 +9034,22 @@
       <c r="B26">
         <v>431</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="87"/>
+      <c r="D26" s="77"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9092,10 +9093,10 @@
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
@@ -9107,10 +9108,10 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
@@ -9132,14 +9133,14 @@
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="2:6" ht="16">
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="2:6" ht="26">
+      <c r="B6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="39"/>
@@ -9244,7 +9245,7 @@
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
     </row>
-    <row r="16" spans="2:6" ht="16">
+    <row r="16" spans="2:6" ht="26">
       <c r="B16" s="38" t="s">
         <v>34</v>
       </c>
@@ -9314,7 +9315,7 @@
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
     </row>
-    <row r="22" spans="2:6" ht="16">
+    <row r="22" spans="2:6" ht="26">
       <c r="B22" s="38" t="s">
         <v>42</v>
       </c>
@@ -9334,10 +9335,10 @@
       <c r="B24" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="81"/>
+      <c r="D24" s="87"/>
       <c r="E24" s="46" t="s">
         <v>10</v>
       </c>
@@ -9347,10 +9348,10 @@
       <c r="B25" s="52">
         <v>431</v>
       </c>
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="112"/>
+      <c r="D25" s="113"/>
       <c r="E25" s="53"/>
       <c r="F25" s="51"/>
     </row>
@@ -9358,39 +9359,39 @@
       <c r="B26">
         <v>432</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="87"/>
+      <c r="D26" s="77"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">

--- a/doc/hotel_api.xlsx
+++ b/doc/hotel_api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="2800" windowWidth="27400" windowHeight="14840" tabRatio="871" activeTab="2"/>
+    <workbookView xWindow="7080" yWindow="980" windowWidth="27400" windowHeight="14840" tabRatio="871" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户注册" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="335">
   <si>
     <t>API名称</t>
   </si>
@@ -1238,6 +1238,18 @@
   </si>
   <si>
     <t>查询最大数据量</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>android端推送id</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用设备id</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -2150,51 +2162,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="5">
       <alignment vertical="center"/>
     </xf>
@@ -2206,9 +2173,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
@@ -2222,27 +2186,138 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="26" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="26" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="26" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="26" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="26" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="26" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="26" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="26" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="26" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="26" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="26" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="26" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="26" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="26" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="26" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2250,98 +2325,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="26" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="26" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="26" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="26" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="26" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="26" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="26" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="26" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="26" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="26" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="26" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="26" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="26" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="26" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="26" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="28" xfId="26" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="26" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="76">
@@ -2767,10 +2779,10 @@
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
@@ -2782,14 +2794,14 @@
       <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="36">
         <v>20160210</v>
       </c>
     </row>
@@ -2808,13 +2820,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -2841,136 +2853,136 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="55" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="39" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="54"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="55"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="55"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="15"/>
@@ -3028,11 +3040,11 @@
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="17"/>
@@ -3061,138 +3073,155 @@
       <c r="B28" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="92" t="s">
+      <c r="D28" s="68"/>
+      <c r="E28" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="93"/>
+      <c r="F28" s="70"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="59">
+      <c r="B29" s="43">
         <v>411</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="59">
+      <c r="B30" s="43">
         <v>412</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="97"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="59">
+      <c r="B31" s="43">
         <v>413</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="97"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="59">
+      <c r="B32" s="43">
         <v>414</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="97"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="59">
+      <c r="B33" s="43">
         <v>415</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="97"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="59">
+      <c r="B34" s="43">
         <v>416</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="97"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="59">
+      <c r="B35" s="43">
         <v>417</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="97"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="59">
+      <c r="B36" s="43">
         <v>418</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="97"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="59">
+      <c r="B37" s="43">
         <v>419</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="97"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="62"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="59">
+      <c r="B38" s="43">
         <v>420</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="97"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="59">
+      <c r="B39" s="43">
         <v>421</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="97"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="C35:D35"/>
@@ -3200,23 +3229,6 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
@@ -3252,14 +3264,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -3267,17 +3279,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="51">
         <v>20160210</v>
       </c>
     </row>
@@ -3296,13 +3308,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -3329,121 +3341,121 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="55"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="55"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="17"/>
@@ -3493,19 +3505,19 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="37">
         <v>200</v>
       </c>
-      <c r="F23" s="55"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="17"/>
@@ -3534,60 +3546,55 @@
       <c r="B27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="92" t="s">
+      <c r="D27" s="68"/>
+      <c r="E27" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="93"/>
+      <c r="F27" s="70"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="50">
+      <c r="B28" s="35">
         <v>431</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="87"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="84"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="54">
+      <c r="B29" s="38">
         <v>432</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="91"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="88"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -3596,6 +3603,11 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -3631,14 +3643,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -3646,17 +3658,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="51">
         <v>20160210</v>
       </c>
     </row>
@@ -3677,13 +3689,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -3710,108 +3722,108 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="76"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="50"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="17"/>
@@ -3834,7 +3846,7 @@
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="49"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="2:6" ht="16" thickTop="1">
       <c r="B20" s="17"/>
@@ -3861,149 +3873,149 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="37">
         <v>200</v>
       </c>
-      <c r="F22" s="55"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="55"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="55"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="55"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="55"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="55"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="55"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="55"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="39"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="17"/>
@@ -4031,7 +4043,7 @@
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
-      <c r="F36" s="49"/>
+      <c r="F36" s="34"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
     </row>
@@ -4046,67 +4058,62 @@
       <c r="B38" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="92" t="s">
+      <c r="D38" s="68"/>
+      <c r="E38" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="93"/>
+      <c r="F38" s="70"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="50">
+      <c r="B39" s="35">
         <v>431</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="87"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="84"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="54">
+      <c r="B40" s="38">
         <v>432</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="89" t="s">
         <v>259</v>
       </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="91"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="88"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="54">
+      <c r="B41" s="38">
         <v>433</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="91"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="88"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="C42" s="44"/>
-      <c r="D42" s="38"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="97"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C2:D2"/>
@@ -4116,6 +4123,11 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -4144,14 +4156,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="79" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -4159,17 +4171,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="80" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="51">
         <v>20160210</v>
       </c>
     </row>
@@ -4190,13 +4202,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="27" thickBot="1">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="2:6" ht="16" thickTop="1">
       <c r="B7" s="17"/>
@@ -4223,82 +4235,82 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="76"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="17"/>
@@ -4335,7 +4347,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="49"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="2:6" ht="16" thickTop="1">
       <c r="B20" s="17"/>
@@ -4362,32 +4374,32 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="37">
         <v>200</v>
       </c>
-      <c r="F22" s="55"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="55"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="17"/>
@@ -4409,7 +4421,7 @@
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="49"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="2:6" ht="16" thickTop="1">
       <c r="B27" s="17"/>
@@ -4422,47 +4434,47 @@
       <c r="B28" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="92" t="s">
+      <c r="D28" s="68"/>
+      <c r="E28" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="93"/>
+      <c r="F28" s="70"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="50">
+      <c r="B29" s="35">
         <v>431</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="84"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="54">
+      <c r="B30" s="38">
         <v>432</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="89" t="s">
         <v>259</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="91"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="54">
+      <c r="B31" s="38">
         <v>433</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="91"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4508,14 +4520,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -4523,17 +4535,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="51">
         <v>20160210</v>
       </c>
     </row>
@@ -4552,13 +4564,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -4585,97 +4597,97 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="55" t="s">
+      <c r="E14" s="36"/>
+      <c r="F14" s="39" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="2:6" ht="26">
       <c r="B16" s="16" t="s">
@@ -4711,19 +4723,19 @@
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="37">
         <v>200</v>
       </c>
-      <c r="F19" s="55"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="17"/>
@@ -4752,94 +4764,99 @@
       <c r="B23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="92" t="s">
+      <c r="D23" s="68"/>
+      <c r="E23" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="93"/>
+      <c r="F23" s="70"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="50">
+      <c r="B24" s="35">
         <v>411</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="84"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="50">
+      <c r="B25" s="35">
         <v>412</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="50">
+      <c r="B26" s="35">
         <v>413</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="89" t="s">
         <v>307</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="50">
+      <c r="B27" s="35">
         <v>414</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="50">
+      <c r="B28" s="35">
         <v>415</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="86"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="50">
+      <c r="B29" s="35">
         <v>416</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="89" t="s">
         <v>262</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="50">
+      <c r="B30" s="35">
         <v>417</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
@@ -4854,11 +4871,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -4891,14 +4903,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -4906,17 +4918,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="51">
         <v>20160210</v>
       </c>
     </row>
@@ -4935,13 +4947,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -4968,251 +4980,251 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="55"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="55"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="55"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="55"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="55"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="55"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="55"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="2:6" ht="26">
       <c r="B28" s="16" t="s">
@@ -5248,19 +5260,19 @@
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="37">
         <v>200</v>
       </c>
-      <c r="F31" s="55"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="17"/>
@@ -5289,116 +5301,131 @@
       <c r="B35" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="92" t="s">
+      <c r="D35" s="68"/>
+      <c r="E35" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="93"/>
+      <c r="F35" s="70"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="50">
+      <c r="B36" s="35">
         <v>411</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="87"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="84"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="50">
+      <c r="B37" s="35">
         <v>412</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="86"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="50">
+      <c r="B38" s="35">
         <v>414</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="86"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="50">
+      <c r="B39" s="35">
         <v>415</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="86"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="50">
+      <c r="B40" s="35">
         <v>416</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="86"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="50">
+      <c r="B41" s="35">
         <v>417</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="86"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="50">
+      <c r="B42" s="35">
         <v>418</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="86"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="50">
+      <c r="B43" s="35">
         <v>419</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="89"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="86"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="50">
+      <c r="B44" s="35">
         <v>420</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="89"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
@@ -5407,21 +5434,6 @@
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -5454,14 +5466,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="47" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -5469,17 +5481,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="93" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="50">
         <v>20160210</v>
       </c>
     </row>
@@ -5498,13 +5510,13 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="3"/>
@@ -5531,212 +5543,212 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="55"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="55"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="55"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="55"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="50"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="2:6" ht="27" thickBot="1">
       <c r="B25" s="2" t="s">
@@ -5772,305 +5784,305 @@
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="37">
         <v>200</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="55"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="55"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="55"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="39"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="55"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="39"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="55"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="39"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="55"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="39"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="55"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="55"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="39"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="55"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="39"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="55"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="55"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="55"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="39"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="55"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="39"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D43" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="E43" s="50"/>
-      <c r="F43" s="55"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="55"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="39"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="D45" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="55"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="39"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="D46" s="54" t="s">
+      <c r="D46" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="55"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="39"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="55"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="39"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D48" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="55"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="39"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="D49" s="54" t="s">
+      <c r="D49" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="E49" s="51"/>
-      <c r="F49" s="55"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="39"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="3"/>
@@ -6099,47 +6111,47 @@
       <c r="B54" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="48"/>
-      <c r="E54" s="42" t="s">
+      <c r="D54" s="102"/>
+      <c r="E54" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="43"/>
+      <c r="F54" s="92"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="50">
+      <c r="B55" s="35">
         <v>431</v>
       </c>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="99"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="104"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="50">
+      <c r="B56" s="35">
         <v>432</v>
       </c>
-      <c r="C56" s="61" t="s">
+      <c r="C56" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="61"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="86"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="50">
+      <c r="B57" s="35">
         <v>433</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6182,14 +6194,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="47" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -6197,17 +6209,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="93" t="s">
         <v>323</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="50">
         <v>20160210</v>
       </c>
     </row>
@@ -6226,13 +6238,13 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="27" thickBot="1">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
     </row>
     <row r="7" spans="2:6" ht="16" thickTop="1">
       <c r="B7" s="3"/>
@@ -6259,186 +6271,186 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="55"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="55"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="55"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="55"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="2:6" ht="27" thickBot="1">
       <c r="B23" s="33" t="s">
@@ -6474,32 +6486,32 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="37">
         <v>200</v>
       </c>
-      <c r="F26" s="55"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="2:6" ht="27" thickBot="1">
       <c r="B28" s="33" t="s">
@@ -6521,47 +6533,47 @@
       <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="42" t="s">
+      <c r="D30" s="102"/>
+      <c r="E30" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="43"/>
+      <c r="F30" s="92"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="50">
+      <c r="B31" s="35">
         <v>431</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="99"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="104"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="50">
+      <c r="B32" s="35">
         <v>432</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="50">
+      <c r="B33" s="35">
         <v>433</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6608,14 +6620,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="47" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -6623,17 +6635,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="93" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="50">
         <v>20160210</v>
       </c>
     </row>
@@ -6652,13 +6664,13 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="3"/>
@@ -6685,84 +6697,84 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52" t="s">
+      <c r="E12" s="36"/>
+      <c r="F12" s="37" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="2:6" ht="26">
       <c r="B15" s="2" t="s">
@@ -6798,19 +6810,19 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="37">
         <v>200</v>
       </c>
-      <c r="F18" s="55"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="3"/>
@@ -6839,83 +6851,88 @@
       <c r="B22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="42" t="s">
+      <c r="D22" s="102"/>
+      <c r="E22" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="F22" s="92"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="50">
+      <c r="B23" s="35">
         <v>411</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="50">
+      <c r="B24" s="35">
         <v>412</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="50">
+      <c r="B25" s="35">
         <v>413</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="50">
+      <c r="B26" s="35">
         <v>414</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="50">
+      <c r="B27" s="35">
         <v>415</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="89" t="s">
         <v>289</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="50">
+      <c r="B28" s="35">
         <v>416</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="89" t="s">
         <v>290</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -6928,11 +6945,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -6964,14 +6976,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="93" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="47" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -6979,17 +6991,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="93" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="50">
         <v>20160210</v>
       </c>
     </row>
@@ -7008,13 +7020,13 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="3"/>
@@ -7041,108 +7053,108 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="55"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="1"/>
@@ -7185,19 +7197,19 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="37">
         <v>200</v>
       </c>
-      <c r="F21" s="55"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="3"/>
@@ -7226,106 +7238,94 @@
       <c r="B25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="42" t="s">
+      <c r="D25" s="102"/>
+      <c r="E25" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="43"/>
+      <c r="F25" s="92"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="50">
+      <c r="B26" s="35">
         <v>411</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="99"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="50">
+      <c r="B27" s="35">
         <v>412</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="50">
+      <c r="B28" s="35">
         <v>413</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="86"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="50">
+      <c r="B29" s="35">
         <v>414</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="50">
+      <c r="B30" s="35">
         <v>415</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="50">
+      <c r="B31" s="35">
         <v>416</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="50">
+      <c r="B32" s="35">
         <v>417</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B6:F6"/>
@@ -7333,6 +7333,18 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -7366,14 +7378,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="47" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -7381,17 +7393,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="50">
         <v>20160210</v>
       </c>
     </row>
@@ -7410,13 +7422,13 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="3"/>
@@ -7443,121 +7455,121 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="55"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="D16" s="101" t="s">
+      <c r="D16" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="E16" s="102"/>
-      <c r="F16" s="101"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="57"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
     </row>
     <row r="18" spans="2:6" ht="27" thickBot="1">
       <c r="B18" s="2" t="s">
@@ -7593,162 +7605,162 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="37">
         <v>200</v>
       </c>
-      <c r="F21" s="55"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="55"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="55"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="55"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="55"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="55"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="55"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="55"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="55"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="39"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="3"/>
@@ -7777,47 +7789,47 @@
       <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="42" t="s">
+      <c r="D36" s="102"/>
+      <c r="E36" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="43"/>
+      <c r="F36" s="92"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="50">
+      <c r="B37" s="35">
         <v>431</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="99"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="104"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="50">
+      <c r="B38" s="35">
         <v>432</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="89" t="s">
         <v>300</v>
       </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="86"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="50">
+      <c r="B39" s="35">
         <v>433</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="86"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="17"/>
@@ -7919,8 +7931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7942,14 +7954,14 @@
     </row>
     <row r="2" spans="1:6" ht="17">
       <c r="A2" s="28"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -7958,17 +7970,17 @@
     </row>
     <row r="3" spans="1:6" ht="17">
       <c r="A3" s="28"/>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="85">
+      <c r="F3" s="55">
         <v>20160210</v>
       </c>
     </row>
@@ -7990,13 +8002,13 @@
     </row>
     <row r="6" spans="1:6" ht="26">
       <c r="A6" s="28"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:6" ht="17">
       <c r="A7" s="28"/>
@@ -8026,59 +8038,67 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29"/>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="36">
         <v>13438432345</v>
       </c>
-      <c r="F9" s="50"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29"/>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="36">
         <v>123456</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="29"/>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F11" s="50"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="29"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>333</v>
+      </c>
       <c r="E12" s="26"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="17">
       <c r="A13" s="28"/>
@@ -8090,13 +8110,13 @@
     </row>
     <row r="14" spans="1:6" ht="26">
       <c r="A14" s="28"/>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
     </row>
     <row r="15" spans="1:6" ht="17">
       <c r="A15" s="28"/>
@@ -8126,231 +8146,231 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="29"/>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="36">
         <v>200</v>
       </c>
-      <c r="F17" s="55"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="29"/>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="55"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="29"/>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="29"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="55"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="29"/>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="55" t="s">
+      <c r="E21" s="36"/>
+      <c r="F21" s="39" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="29"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="55" t="s">
+      <c r="E22" s="35"/>
+      <c r="F22" s="39" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="29"/>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="55"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="29"/>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="55"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="29"/>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="29"/>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="29"/>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="55"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="29"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="55"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="29"/>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="55"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="29"/>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="29"/>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="55"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="29"/>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="55"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="39"/>
     </row>
     <row r="33" spans="1:6" ht="17">
       <c r="A33" s="28"/>
@@ -8378,13 +8398,13 @@
     </row>
     <row r="36" spans="1:6" ht="26">
       <c r="A36" s="28"/>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
     </row>
     <row r="37" spans="1:6" ht="17">
       <c r="A37" s="28"/>
@@ -8399,62 +8419,62 @@
       <c r="B38" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39" t="s">
+      <c r="D38" s="78"/>
+      <c r="E38" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="39"/>
+      <c r="F38" s="78"/>
     </row>
     <row r="39" spans="1:6" ht="17">
       <c r="A39" s="28"/>
-      <c r="B39" s="50">
+      <c r="B39" s="35">
         <v>401</v>
       </c>
-      <c r="C39" s="79" t="s">
+      <c r="C39" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="82"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="75"/>
     </row>
     <row r="40" spans="1:6" ht="17">
       <c r="A40" s="28"/>
-      <c r="B40" s="50">
+      <c r="B40" s="35">
         <v>402</v>
       </c>
-      <c r="C40" s="79" t="s">
+      <c r="C40" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
     </row>
     <row r="41" spans="1:6" ht="17">
       <c r="A41" s="28"/>
-      <c r="B41" s="50">
+      <c r="B41" s="35">
         <v>403</v>
       </c>
-      <c r="C41" s="79" t="s">
+      <c r="C41" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
     </row>
     <row r="42" spans="1:6" ht="17">
       <c r="A42" s="28"/>
-      <c r="B42" s="59">
+      <c r="B42" s="43">
         <v>404</v>
       </c>
-      <c r="C42" s="79" t="s">
+      <c r="C42" s="73" t="s">
         <v>311</v>
       </c>
-      <c r="D42" s="79"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="84"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="77"/>
     </row>
     <row r="43" spans="1:6" ht="17">
       <c r="A43" s="28"/>
@@ -8505,21 +8525,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B36:F36"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -8548,14 +8568,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="47" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -8563,17 +8583,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="50">
         <v>20160210</v>
       </c>
     </row>
@@ -8592,13 +8612,13 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="27" thickBot="1">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
     </row>
     <row r="7" spans="2:6" ht="16" thickTop="1">
       <c r="B7" s="3"/>
@@ -8625,95 +8645,95 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="55"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="1"/>
@@ -8756,32 +8776,32 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="37">
         <v>200</v>
       </c>
-      <c r="F20" s="55"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="2:6" ht="27" thickBot="1">
       <c r="B22" s="33" t="s">
@@ -8803,47 +8823,47 @@
       <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="42" t="s">
+      <c r="D24" s="102"/>
+      <c r="E24" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="43"/>
+      <c r="F24" s="92"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="50">
+      <c r="B25" s="35">
         <v>431</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="99"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="104"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="50">
+      <c r="B26" s="35">
         <v>432</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="89" t="s">
         <v>300</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="50">
+      <c r="B27" s="35">
         <v>433</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8888,14 +8908,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -8903,17 +8923,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="45">
         <v>20160210</v>
       </c>
     </row>
@@ -8932,13 +8952,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="27" thickBot="1">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="2:6" ht="16" thickTop="1">
       <c r="B7" s="17"/>
@@ -8965,60 +8985,60 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="15"/>
@@ -9060,26 +9080,26 @@
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="37">
         <v>200</v>
       </c>
-      <c r="F19" s="55"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="17"/>
@@ -9108,47 +9128,47 @@
       <c r="B24" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="92" t="s">
+      <c r="D24" s="68"/>
+      <c r="E24" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="93"/>
+      <c r="F24" s="70"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="55">
+      <c r="B25" s="39">
         <v>401</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="87"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="84"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="54">
+      <c r="B26" s="38">
         <v>403</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="89" t="s">
         <v>192</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="91"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="88"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="54">
+      <c r="B27" s="38">
         <v>404</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="91"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="88"/>
       <c r="I27" s="17"/>
     </row>
   </sheetData>
@@ -9185,7 +9205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -9207,14 +9227,14 @@
     </row>
     <row r="2" spans="1:6" ht="17">
       <c r="A2" s="28"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -9223,17 +9243,17 @@
     </row>
     <row r="3" spans="1:6" ht="17">
       <c r="A3" s="28"/>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="51">
         <v>20160210</v>
       </c>
     </row>
@@ -9255,13 +9275,13 @@
     </row>
     <row r="6" spans="1:6" ht="26">
       <c r="A6" s="28"/>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:6" ht="17">
       <c r="A7" s="28"/>
@@ -9291,145 +9311,145 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29"/>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29"/>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="55" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="39" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="29"/>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="54"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="29"/>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6" ht="17">
       <c r="A13" s="28"/>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="1:6" ht="17">
       <c r="A14" s="28"/>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="1:6" ht="17">
       <c r="A15" s="28"/>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="55"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="1:6" ht="16" customHeight="1">
       <c r="A16" s="28"/>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="55"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="29"/>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:6" ht="27" thickBot="1">
       <c r="A19" s="29"/>
@@ -9469,19 +9489,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="29"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="36">
         <v>200</v>
       </c>
-      <c r="F22" s="55"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="29"/>
@@ -9517,134 +9537,134 @@
       <c r="B27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="92" t="s">
+      <c r="D27" s="68"/>
+      <c r="E27" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="93"/>
+      <c r="F27" s="70"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="29"/>
-      <c r="B28" s="50">
+      <c r="B28" s="35">
         <v>411</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="87"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="84"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="29"/>
-      <c r="B29" s="50">
+      <c r="B29" s="35">
         <v>412</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="29"/>
-      <c r="B30" s="50">
+      <c r="B30" s="35">
         <v>413</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="29"/>
-      <c r="B31" s="50">
+      <c r="B31" s="35">
         <v>414</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="91"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="88"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="29"/>
-      <c r="B32" s="50">
+      <c r="B32" s="35">
         <v>415</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="91"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="88"/>
     </row>
     <row r="33" spans="1:6" ht="17">
       <c r="A33" s="28"/>
-      <c r="B33" s="50">
+      <c r="B33" s="35">
         <v>416</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="91"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
     </row>
     <row r="34" spans="1:6" ht="17">
       <c r="A34" s="28"/>
-      <c r="B34" s="50">
+      <c r="B34" s="35">
         <v>417</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="91"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="88"/>
     </row>
     <row r="35" spans="1:6" ht="17">
       <c r="A35" s="28"/>
-      <c r="B35" s="50">
+      <c r="B35" s="35">
         <v>418</v>
       </c>
-      <c r="C35" s="77" t="s">
+      <c r="C35" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="89"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="86"/>
     </row>
     <row r="36" spans="1:6" ht="17">
       <c r="A36" s="28"/>
-      <c r="B36" s="50">
+      <c r="B36" s="35">
         <v>419</v>
       </c>
-      <c r="C36" s="77" t="s">
+      <c r="C36" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="D36" s="77"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="89"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="86"/>
     </row>
     <row r="37" spans="1:6" ht="17">
       <c r="A37" s="28"/>
-      <c r="B37" s="50">
+      <c r="B37" s="35">
         <v>420</v>
       </c>
-      <c r="C37" s="77" t="s">
+      <c r="C37" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="77"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="89"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="86"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="29"/>
@@ -9655,6 +9675,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
@@ -9671,15 +9700,6 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -9715,14 +9735,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="47" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -9730,17 +9750,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="50">
         <v>20160210</v>
       </c>
     </row>
@@ -9759,13 +9779,13 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="3"/>
@@ -9792,78 +9812,78 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="50"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="2:6" ht="26">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="3"/>
@@ -9890,257 +9910,257 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="37">
         <v>200</v>
       </c>
-      <c r="F17" s="55"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="55"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="55"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="55" t="s">
+      <c r="E22" s="53"/>
+      <c r="F22" s="39" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="55" t="s">
+      <c r="E23" s="53"/>
+      <c r="F23" s="39" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="55"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="55"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="55"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="55"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="78"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="55"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="55"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="39"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="78"/>
-      <c r="F33" s="55"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="39"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="55"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="39"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="78"/>
-      <c r="F35" s="55"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="39"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="3"/>
@@ -10149,13 +10169,13 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="2:6" ht="27" thickBot="1">
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
     </row>
     <row r="38" spans="2:6" ht="16" thickTop="1">
       <c r="B38" s="3"/>
@@ -10168,50 +10188,55 @@
       <c r="B39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="42" t="s">
+      <c r="D39" s="92"/>
+      <c r="E39" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="43"/>
+      <c r="F39" s="92"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="50">
+      <c r="B40" s="35">
         <v>401</v>
       </c>
-      <c r="C40" s="79" t="s">
+      <c r="C40" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="50">
+      <c r="B41" s="35">
         <v>402</v>
       </c>
-      <c r="C41" s="79" t="s">
+      <c r="C41" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="50">
+      <c r="B42" s="35">
         <v>403</v>
       </c>
-      <c r="C42" s="79" t="s">
+      <c r="C42" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B37:F37"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="C39:D39"/>
@@ -10220,11 +10245,6 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -10256,14 +10276,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="93" t="s">
         <v>318</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="47" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -10271,17 +10291,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="93" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="50">
         <v>20160210</v>
       </c>
     </row>
@@ -10300,13 +10320,13 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="27" thickBot="1">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
     </row>
     <row r="7" spans="2:6" ht="16" thickTop="1">
       <c r="B7" s="3"/>
@@ -10333,43 +10353,43 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6" ht="30">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="1"/>
@@ -10386,13 +10406,13 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:6" ht="27" thickBot="1">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
     </row>
     <row r="15" spans="2:6" ht="16" thickTop="1">
       <c r="B15" s="3"/>
@@ -10419,19 +10439,19 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="37">
         <v>200</v>
       </c>
-      <c r="F17" s="55"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="3" t="s">
@@ -10446,13 +10466,13 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:6" ht="27" thickBot="1">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="96" t="s">
         <v>314</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
     </row>
     <row r="20" spans="2:6" ht="16" thickTop="1">
       <c r="B20" s="3"/>
@@ -10465,63 +10485,63 @@
       <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="42" t="s">
+      <c r="D21" s="92"/>
+      <c r="E21" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="43"/>
+      <c r="F21" s="92"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="50">
+      <c r="B22" s="35">
         <v>401</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="50">
+      <c r="B23" s="35">
         <v>402</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="50">
+      <c r="B24" s="35">
         <v>403</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -10552,14 +10572,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -10567,17 +10587,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="51">
         <v>20160210</v>
       </c>
     </row>
@@ -10596,13 +10616,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -10629,30 +10649,30 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="15"/>
@@ -10702,19 +10722,19 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="37">
         <v>200</v>
       </c>
-      <c r="F16" s="55"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="17"/>
@@ -10743,47 +10763,47 @@
       <c r="B20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="24"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="50">
+      <c r="B21" s="35">
         <v>401</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="50">
+      <c r="B22" s="35">
         <v>422</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="50">
+      <c r="B23" s="35">
         <v>423</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10827,14 +10847,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -10842,17 +10862,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="51">
         <v>20160210</v>
       </c>
     </row>
@@ -10871,13 +10891,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -10904,43 +10924,43 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="15"/>
@@ -10990,45 +11010,45 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="37">
         <v>200</v>
       </c>
-      <c r="F17" s="55"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="17"/>
@@ -11057,47 +11077,47 @@
       <c r="B23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="24"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="50">
+      <c r="B24" s="35">
         <v>421</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="50">
+      <c r="B25" s="35">
         <v>401</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="82" t="s">
         <v>310</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="50">
+      <c r="B26" s="35">
         <v>402</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="82" t="s">
         <v>249</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11140,14 +11160,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -11155,17 +11175,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="51">
         <v>20160210</v>
       </c>
     </row>
@@ -11184,13 +11204,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -11217,30 +11237,30 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="15"/>
@@ -11290,19 +11310,19 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="37">
         <v>200</v>
       </c>
-      <c r="F16" s="55"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="17"/>
@@ -11331,36 +11351,36 @@
       <c r="B20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="92" t="s">
+      <c r="D20" s="68"/>
+      <c r="E20" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="93"/>
+      <c r="F20" s="70"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="50">
+      <c r="B21" s="35">
         <v>421</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="50">
+      <c r="B22" s="35">
         <v>401</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11405,14 +11425,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -11420,17 +11440,17 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="51">
         <v>20160210</v>
       </c>
     </row>
@@ -11449,13 +11469,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -11482,108 +11502,108 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="55"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="17"/>
@@ -11632,19 +11652,19 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="37">
         <v>200</v>
       </c>
-      <c r="F22" s="55"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="17"/>
@@ -11673,48 +11693,48 @@
       <c r="B26" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="92" t="s">
+      <c r="D26" s="68"/>
+      <c r="E26" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="93"/>
+      <c r="F26" s="70"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="50">
+      <c r="B27" s="35">
         <v>401</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="84"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="54">
+      <c r="B28" s="38">
         <v>431</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="91"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="88"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/doc/hotel_api.xlsx
+++ b/doc/hotel_api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="980" windowWidth="27400" windowHeight="14840" tabRatio="871" activeTab="1"/>
+    <workbookView xWindow="7080" yWindow="980" windowWidth="31320" windowHeight="18880" tabRatio="963" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="用户注册" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="336">
   <si>
     <t>API名称</t>
   </si>
@@ -1250,6 +1250,10 @@
   </si>
   <si>
     <t>使用设备id</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改订单</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -2063,7 +2067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2237,9 +2241,14 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="26" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="26" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2255,6 +2264,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2263,6 +2273,18 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="26" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="26" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2278,16 +2300,10 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="26" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
@@ -2307,28 +2323,22 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="26" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="26" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="26" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -2763,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2779,10 +2789,10 @@
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
@@ -2794,10 +2804,10 @@
       <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="65"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
@@ -2820,13 +2830,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -3073,155 +3083,138 @@
       <c r="B28" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69" t="s">
+      <c r="D28" s="69"/>
+      <c r="E28" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="70"/>
+      <c r="F28" s="72"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="43">
         <v>411</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="72"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="74"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="43">
         <v>412</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="43">
         <v>413</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="62"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="64"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="43">
         <v>414</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="43">
         <v>415</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="64"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="43">
         <v>416</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="63"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="62"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="64"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="43">
         <v>417</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="64"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="43">
         <v>418</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="62"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="64"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="43">
         <v>419</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="62"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="64"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="43">
         <v>420</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="63"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="62"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="43">
         <v>421</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="62"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="C35:D35"/>
@@ -3232,6 +3225,23 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -3253,7 +3263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -3267,10 +3277,10 @@
       <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="79"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
@@ -3282,10 +3292,10 @@
       <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
@@ -3308,13 +3318,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -3546,52 +3556,52 @@
       <c r="B27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69" t="s">
+      <c r="D27" s="69"/>
+      <c r="E27" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="70"/>
+      <c r="F27" s="72"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="35">
         <v>431</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="88"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="38">
         <v>432</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="92"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3629,7 +3639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15:F16"/>
     </sheetView>
   </sheetViews>
@@ -3646,10 +3656,10 @@
       <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="79"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
@@ -3661,10 +3671,10 @@
       <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
@@ -3689,13 +3699,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -4058,59 +4068,59 @@
       <c r="B38" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="69" t="s">
+      <c r="D38" s="69"/>
+      <c r="E38" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="70"/>
+      <c r="F38" s="72"/>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="35">
         <v>431</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C39" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="88"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="38">
         <v>432</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="88"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="92"/>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="38">
         <v>433</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="C41" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="89"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="88"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="92"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="C42" s="98"/>
-      <c r="D42" s="97"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="99"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4149,7 +4159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -4159,10 +4169,10 @@
       <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="75" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="79"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
@@ -4174,10 +4184,10 @@
       <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
@@ -4202,13 +4212,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="27" thickBot="1">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="2:6" ht="16" thickTop="1">
       <c r="B7" s="17"/>
@@ -4434,47 +4444,47 @@
       <c r="B28" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69" t="s">
+      <c r="D28" s="69"/>
+      <c r="E28" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="70"/>
+      <c r="F28" s="72"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="35">
         <v>431</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="88"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="38">
         <v>432</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="88"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="92"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="38">
         <v>433</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="88"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4523,10 +4533,10 @@
       <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="79"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
@@ -4538,10 +4548,10 @@
       <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
@@ -4564,13 +4574,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -4764,99 +4774,94 @@
       <c r="B23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69" t="s">
+      <c r="D23" s="69"/>
+      <c r="E23" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="70"/>
+      <c r="F23" s="72"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="35">
         <v>411</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="84" t="s">
         <v>305</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="88"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="35">
         <v>412</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="84" t="s">
         <v>306</v>
       </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="35">
         <v>413</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="84" t="s">
         <v>307</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="35">
         <v>414</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="84" t="s">
         <v>308</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="35">
         <v>415</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="84" t="s">
         <v>261</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="35">
         <v>416</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="35">
         <v>417</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
@@ -4871,6 +4876,11 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -4892,8 +4902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:F44"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4906,10 +4916,10 @@
       <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="79"/>
+      <c r="C2" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="D2" s="75"/>
       <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
@@ -4921,10 +4931,10 @@
       <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
@@ -4947,13 +4957,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -5301,123 +5311,124 @@
       <c r="B35" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="68"/>
-      <c r="E35" s="69" t="s">
+      <c r="D35" s="69"/>
+      <c r="E35" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="70"/>
+      <c r="F35" s="72"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="35">
         <v>411</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C36" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="89"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="88"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="35">
         <v>412</v>
       </c>
-      <c r="C37" s="89" t="s">
+      <c r="C37" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="89"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="86"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="90"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="35">
         <v>414</v>
       </c>
-      <c r="C38" s="89" t="s">
+      <c r="C38" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="89"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="86"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="90"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="35">
         <v>415</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C39" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="86"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="90"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="35">
         <v>416</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="86"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="90"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="35">
         <v>417</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="C41" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="89"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="86"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="90"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="35">
         <v>418</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="89"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="86"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="90"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="35">
         <v>419</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="89"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="86"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="90"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="35">
         <v>420</v>
       </c>
-      <c r="C44" s="89" t="s">
+      <c r="C44" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="89"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="86"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
@@ -5426,14 +5437,13 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -5510,13 +5520,13 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="3"/>
@@ -6111,47 +6121,47 @@
       <c r="B54" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="101" t="s">
+      <c r="C54" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="102"/>
-      <c r="E54" s="91" t="s">
+      <c r="D54" s="104"/>
+      <c r="E54" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="92"/>
+      <c r="F54" s="98"/>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="35">
         <v>431</v>
       </c>
-      <c r="C55" s="89" t="s">
+      <c r="C55" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="89"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="104"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="106"/>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="35">
         <v>432</v>
       </c>
-      <c r="C56" s="89" t="s">
+      <c r="C56" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="89"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="86"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="90"/>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="35">
         <v>433</v>
       </c>
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="89"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="86"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6187,7 +6197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27:F27"/>
     </sheetView>
   </sheetViews>
@@ -6238,13 +6248,13 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="27" thickBot="1">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
     </row>
     <row r="7" spans="2:6" ht="16" thickTop="1">
       <c r="B7" s="3"/>
@@ -6533,47 +6543,47 @@
       <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="91" t="s">
+      <c r="D30" s="104"/>
+      <c r="E30" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="92"/>
+      <c r="F30" s="98"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="35">
         <v>431</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="104"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="106"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="35">
         <v>432</v>
       </c>
-      <c r="C32" s="89" t="s">
+      <c r="C32" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="35">
         <v>433</v>
       </c>
-      <c r="C33" s="89" t="s">
+      <c r="C33" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="86"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6609,7 +6619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22:F28"/>
     </sheetView>
   </sheetViews>
@@ -6664,13 +6674,13 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="3"/>
@@ -6851,88 +6861,83 @@
       <c r="B22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="91" t="s">
+      <c r="D22" s="104"/>
+      <c r="E22" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="92"/>
+      <c r="F22" s="98"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="35">
         <v>411</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="106"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="35">
         <v>412</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="86"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="35">
         <v>413</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="35">
         <v>414</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="35">
         <v>415</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="84" t="s">
         <v>289</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="35">
         <v>416</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -6945,6 +6950,11 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -6966,7 +6976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25:F32"/>
     </sheetView>
   </sheetViews>
@@ -7020,13 +7030,13 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="3"/>
@@ -7238,94 +7248,106 @@
       <c r="B25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="91" t="s">
+      <c r="D25" s="104"/>
+      <c r="E25" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="92"/>
+      <c r="F25" s="98"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="35">
         <v>411</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="106"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="35">
         <v>412</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="35">
         <v>413</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="35">
         <v>414</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="35">
         <v>415</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="90"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="35">
         <v>416</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="35">
         <v>417</v>
       </c>
-      <c r="C32" s="89" t="s">
+      <c r="C32" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B6:F6"/>
@@ -7333,18 +7355,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -7366,8 +7376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7422,13 +7432,13 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="3"/>
@@ -7789,47 +7799,47 @@
       <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="101" t="s">
+      <c r="C36" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="102"/>
-      <c r="E36" s="91" t="s">
+      <c r="D36" s="104"/>
+      <c r="E36" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="92"/>
+      <c r="F36" s="98"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="35">
         <v>431</v>
       </c>
-      <c r="C37" s="89" t="s">
+      <c r="C37" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="D37" s="89"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="104"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="106"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="35">
         <v>432</v>
       </c>
-      <c r="C38" s="89" t="s">
+      <c r="C38" s="84" t="s">
         <v>300</v>
       </c>
-      <c r="D38" s="89"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="86"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="90"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="35">
         <v>433</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C39" s="84" t="s">
         <v>299</v>
       </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="86"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="90"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="17"/>
@@ -7931,8 +7941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7957,10 +7967,10 @@
       <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="79"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
@@ -7973,10 +7983,10 @@
       <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
@@ -8002,13 +8012,13 @@
     </row>
     <row r="6" spans="1:6" ht="26">
       <c r="A6" s="28"/>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="17">
       <c r="A7" s="28"/>
@@ -8086,17 +8096,17 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="29"/>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="61" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="62"/>
+      <c r="F12" s="61" t="s">
         <v>334</v>
       </c>
     </row>
@@ -8110,13 +8120,13 @@
     </row>
     <row r="14" spans="1:6" ht="26">
       <c r="A14" s="28"/>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
     </row>
     <row r="15" spans="1:6" ht="17">
       <c r="A15" s="28"/>
@@ -8398,13 +8408,13 @@
     </row>
     <row r="36" spans="1:6" ht="26">
       <c r="A36" s="28"/>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
     </row>
     <row r="37" spans="1:6" ht="17">
       <c r="A37" s="28"/>
@@ -8433,48 +8443,48 @@
       <c r="B39" s="35">
         <v>401</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="75"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="81"/>
     </row>
     <row r="40" spans="1:6" ht="17">
       <c r="A40" s="28"/>
       <c r="B40" s="35">
         <v>402</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="79" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
     </row>
     <row r="41" spans="1:6" ht="17">
       <c r="A41" s="28"/>
       <c r="B41" s="35">
         <v>403</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
     </row>
     <row r="42" spans="1:6" ht="17">
       <c r="A42" s="28"/>
       <c r="B42" s="43">
         <v>404</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="C42" s="79" t="s">
         <v>311</v>
       </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="77"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="83"/>
     </row>
     <row r="43" spans="1:6" ht="17">
       <c r="A43" s="28"/>
@@ -8525,21 +8535,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B36:F36"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -8562,7 +8572,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8612,13 +8622,13 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="27" thickBot="1">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
     </row>
     <row r="7" spans="2:6" ht="16" thickTop="1">
       <c r="B7" s="3"/>
@@ -8823,47 +8833,47 @@
       <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="102"/>
-      <c r="E24" s="91" t="s">
+      <c r="D24" s="104"/>
+      <c r="E24" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="92"/>
+      <c r="F24" s="98"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="35">
         <v>431</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="104"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="106"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="35">
         <v>432</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="84" t="s">
         <v>300</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="35">
         <v>433</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="84" t="s">
         <v>299</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8898,8 +8908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8911,10 +8921,10 @@
       <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="79"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
@@ -8926,10 +8936,10 @@
       <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
@@ -8952,13 +8962,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="27" thickBot="1">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="2:6" ht="16" thickTop="1">
       <c r="B7" s="17"/>
@@ -9128,47 +9138,47 @@
       <c r="B24" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69" t="s">
+      <c r="D24" s="69"/>
+      <c r="E24" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="70"/>
+      <c r="F24" s="72"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="39">
         <v>401</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="38">
         <v>403</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="92"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="38">
         <v>404</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="88"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="92"/>
       <c r="I27" s="17"/>
     </row>
   </sheetData>
@@ -9205,7 +9215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -9230,10 +9240,10 @@
       <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="79"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
@@ -9246,10 +9256,10 @@
       <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
@@ -9275,13 +9285,13 @@
     </row>
     <row r="6" spans="1:6" ht="26">
       <c r="A6" s="28"/>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="17">
       <c r="A7" s="28"/>
@@ -9537,134 +9547,134 @@
       <c r="B27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69" t="s">
+      <c r="D27" s="69"/>
+      <c r="E27" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="70"/>
+      <c r="F27" s="72"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="29"/>
       <c r="B28" s="35">
         <v>411</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="84"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="88"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="29"/>
       <c r="B29" s="35">
         <v>412</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="29"/>
       <c r="B30" s="35">
         <v>413</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="90"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="29"/>
       <c r="B31" s="35">
         <v>414</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="88"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="92"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="29"/>
       <c r="B32" s="35">
         <v>415</v>
       </c>
-      <c r="C32" s="89" t="s">
+      <c r="C32" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="88"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="92"/>
     </row>
     <row r="33" spans="1:6" ht="17">
       <c r="A33" s="28"/>
       <c r="B33" s="35">
         <v>416</v>
       </c>
-      <c r="C33" s="89" t="s">
+      <c r="C33" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="88"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="92"/>
     </row>
     <row r="34" spans="1:6" ht="17">
       <c r="A34" s="28"/>
       <c r="B34" s="35">
         <v>417</v>
       </c>
-      <c r="C34" s="89" t="s">
+      <c r="C34" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="88"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="92"/>
     </row>
     <row r="35" spans="1:6" ht="17">
       <c r="A35" s="28"/>
       <c r="B35" s="35">
         <v>418</v>
       </c>
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="86" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="82"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="90"/>
     </row>
     <row r="36" spans="1:6" ht="17">
       <c r="A36" s="28"/>
       <c r="B36" s="35">
         <v>419</v>
       </c>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="86" t="s">
         <v>245</v>
       </c>
-      <c r="D36" s="82"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="90"/>
     </row>
     <row r="37" spans="1:6" ht="17">
       <c r="A37" s="28"/>
       <c r="B37" s="35">
         <v>420</v>
       </c>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="86" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="82"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="90"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="29"/>
@@ -9675,15 +9685,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
@@ -9700,6 +9701,15 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -9721,8 +9731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10188,55 +10198,50 @@
       <c r="B39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="91" t="s">
+      <c r="C39" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="91" t="s">
+      <c r="D39" s="98"/>
+      <c r="E39" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="92"/>
+      <c r="F39" s="98"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="35">
         <v>401</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="35">
         <v>402</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="35">
         <v>403</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="C42" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B37:F37"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="C39:D39"/>
@@ -10245,6 +10250,11 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -10267,7 +10277,7 @@
   <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10485,50 +10495,56 @@
       <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="91" t="s">
+      <c r="D21" s="98"/>
+      <c r="E21" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="92"/>
+      <c r="F21" s="98"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="35">
         <v>401</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="35">
         <v>402</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="35">
         <v>403</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="C2:D2"/>
@@ -10536,12 +10552,6 @@
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
@@ -10563,22 +10573,22 @@
   <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="79"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
@@ -10590,10 +10600,10 @@
       <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
@@ -10616,13 +10626,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -10763,10 +10773,10 @@
       <c r="B20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="68"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="24" t="s">
         <v>10</v>
       </c>
@@ -10776,10 +10786,10 @@
       <c r="B21" s="35">
         <v>401</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="86" t="s">
         <v>248</v>
       </c>
-      <c r="D21" s="82"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
     </row>
@@ -10787,10 +10797,10 @@
       <c r="B22" s="35">
         <v>422</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="82"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="36"/>
       <c r="F22" s="36"/>
     </row>
@@ -10798,10 +10808,10 @@
       <c r="B23" s="35">
         <v>423</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="82"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
     </row>
@@ -10835,7 +10845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -10850,10 +10860,10 @@
       <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="79"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
@@ -10865,10 +10875,10 @@
       <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
@@ -10891,13 +10901,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -11077,10 +11087,10 @@
       <c r="B23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="68"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="24" t="s">
         <v>10</v>
       </c>
@@ -11090,10 +11100,10 @@
       <c r="B24" s="35">
         <v>421</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="86"/>
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
     </row>
@@ -11101,10 +11111,10 @@
       <c r="B25" s="35">
         <v>401</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="86" t="s">
         <v>310</v>
       </c>
-      <c r="D25" s="82"/>
+      <c r="D25" s="86"/>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
     </row>
@@ -11112,10 +11122,10 @@
       <c r="B26" s="35">
         <v>402</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="86" t="s">
         <v>249</v>
       </c>
-      <c r="D26" s="82"/>
+      <c r="D26" s="86"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
     </row>
@@ -11163,10 +11173,10 @@
       <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="79"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
@@ -11178,10 +11188,10 @@
       <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
@@ -11204,13 +11214,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -11351,36 +11361,36 @@
       <c r="B20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69" t="s">
+      <c r="D20" s="69"/>
+      <c r="E20" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="70"/>
+      <c r="F20" s="72"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="35">
         <v>421</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="35">
         <v>401</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="86" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11428,10 +11438,10 @@
       <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="79"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
@@ -11443,10 +11453,10 @@
       <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
@@ -11469,13 +11479,13 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="26">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17"/>
@@ -11693,48 +11703,48 @@
       <c r="B26" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69" t="s">
+      <c r="D26" s="69"/>
+      <c r="E26" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="70"/>
+      <c r="F26" s="72"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="35">
         <v>401</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="88"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="38">
         <v>431</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="88"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="92"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="12">
